--- a/龍頭/學生資料匯入範本-需求都是2.xlsx
+++ b/龍頭/學生資料匯入範本-需求都是2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aydenhuang/Documents/ProgranmCase/MyCursor/dragon/龍頭/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BCD8C01-EA5B-1F48-995E-4F64076CA15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E5C98-5102-0641-B2AE-43B84D94AD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="215">
   <si>
     <t>班級</t>
   </si>
@@ -741,6 +741,10 @@
   <si>
     <t>長褲件數</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試女</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1652,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K195"/>
+  <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:K195"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="G196" sqref="G196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1765,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20">
+    <row r="4" spans="1:11" ht="19">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1800,7 +1804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20">
+    <row r="5" spans="1:11" ht="19">
       <c r="A5">
         <v>101</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20">
+    <row r="6" spans="1:11" ht="19">
       <c r="A6">
         <v>101</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20">
+    <row r="7" spans="1:11" ht="19">
       <c r="A7">
         <v>101</v>
       </c>
@@ -1905,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="21" thickBot="1">
+    <row r="8" spans="1:11" ht="20" thickBot="1">
       <c r="A8">
         <v>101</v>
       </c>
@@ -1940,7 +1944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20">
+    <row r="9" spans="1:11" ht="19">
       <c r="A9">
         <v>101</v>
       </c>
@@ -1975,7 +1979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20">
+    <row r="10" spans="1:11" ht="19">
       <c r="A10">
         <v>101</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20">
+    <row r="11" spans="1:11" ht="19">
       <c r="A11">
         <v>101</v>
       </c>
@@ -2045,7 +2049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20">
+    <row r="12" spans="1:11" ht="19">
       <c r="A12">
         <v>101</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="21" thickBot="1">
+    <row r="13" spans="1:11" ht="20" thickBot="1">
       <c r="A13">
         <v>101</v>
       </c>
@@ -2115,7 +2119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20">
+    <row r="14" spans="1:11" ht="19">
       <c r="A14">
         <v>101</v>
       </c>
@@ -2150,7 +2154,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21">
+    <row r="15" spans="1:11" ht="19">
       <c r="A15">
         <v>101</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20">
+    <row r="16" spans="1:11" ht="19">
       <c r="A16">
         <v>101</v>
       </c>
@@ -2220,7 +2224,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20">
+    <row r="17" spans="1:11" ht="19">
       <c r="A17">
         <v>101</v>
       </c>
@@ -2255,7 +2259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="21" thickBot="1">
+    <row r="18" spans="1:11" ht="20" thickBot="1">
       <c r="A18">
         <v>101</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="20">
+    <row r="19" spans="1:11" ht="19">
       <c r="A19">
         <v>101</v>
       </c>
@@ -2325,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="20">
+    <row r="20" spans="1:11" ht="19">
       <c r="A20">
         <v>101</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="21">
+    <row r="21" spans="1:11" ht="19">
       <c r="A21">
         <v>101</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="20">
+    <row r="22" spans="1:11" ht="19">
       <c r="A22">
         <v>101</v>
       </c>
@@ -2430,7 +2434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="21" thickBot="1">
+    <row r="23" spans="1:11" ht="20" thickBot="1">
       <c r="A23">
         <v>101</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20">
+    <row r="24" spans="1:11" ht="19">
       <c r="A24">
         <v>101</v>
       </c>
@@ -2500,7 +2504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20">
+    <row r="25" spans="1:11" ht="19">
       <c r="A25">
         <v>101</v>
       </c>
@@ -2529,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20">
+    <row r="26" spans="1:11" ht="19">
       <c r="A26">
         <v>101</v>
       </c>
@@ -2564,7 +2568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20">
+    <row r="27" spans="1:11" ht="19">
       <c r="A27">
         <v>101</v>
       </c>
@@ -2599,7 +2603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="21" thickBot="1">
+    <row r="28" spans="1:11" ht="20" thickBot="1">
       <c r="A28">
         <v>101</v>
       </c>
@@ -2634,7 +2638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20">
+    <row r="29" spans="1:11" ht="19">
       <c r="A29">
         <v>102</v>
       </c>
@@ -2663,7 +2667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20">
+    <row r="30" spans="1:11" ht="19">
       <c r="A30">
         <v>102</v>
       </c>
@@ -2698,7 +2702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="21">
+    <row r="31" spans="1:11" ht="19">
       <c r="A31">
         <v>102</v>
       </c>
@@ -2733,7 +2737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="20">
+    <row r="32" spans="1:11" ht="19">
       <c r="A32">
         <v>102</v>
       </c>
@@ -2768,7 +2772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="21" thickBot="1">
+    <row r="33" spans="1:11" ht="20" thickBot="1">
       <c r="A33">
         <v>102</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="20">
+    <row r="34" spans="1:11" ht="19">
       <c r="A34">
         <v>102</v>
       </c>
@@ -2838,7 +2842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="20">
+    <row r="35" spans="1:11" ht="19">
       <c r="A35">
         <v>102</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="21">
+    <row r="36" spans="1:11" ht="19">
       <c r="A36">
         <v>102</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="20">
+    <row r="37" spans="1:11" ht="19">
       <c r="A37">
         <v>102</v>
       </c>
@@ -2943,7 +2947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="21" thickBot="1">
+    <row r="38" spans="1:11" ht="20" thickBot="1">
       <c r="A38">
         <v>102</v>
       </c>
@@ -2978,7 +2982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="20">
+    <row r="39" spans="1:11" ht="19">
       <c r="A39">
         <v>102</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="20">
+    <row r="40" spans="1:11" ht="19">
       <c r="A40">
         <v>102</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="20">
+    <row r="41" spans="1:11" ht="19">
       <c r="A41">
         <v>102</v>
       </c>
@@ -3083,7 +3087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="20">
+    <row r="42" spans="1:11" ht="19">
       <c r="A42">
         <v>102</v>
       </c>
@@ -3118,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="21" thickBot="1">
+    <row r="43" spans="1:11" ht="20" thickBot="1">
       <c r="A43">
         <v>102</v>
       </c>
@@ -3147,7 +3151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="20">
+    <row r="44" spans="1:11" ht="19">
       <c r="A44">
         <v>102</v>
       </c>
@@ -3182,7 +3186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="20">
+    <row r="45" spans="1:11" ht="19">
       <c r="A45">
         <v>102</v>
       </c>
@@ -3217,7 +3221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="20">
+    <row r="46" spans="1:11" ht="19">
       <c r="A46">
         <v>102</v>
       </c>
@@ -3252,7 +3256,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="20">
+    <row r="47" spans="1:11" ht="19">
       <c r="A47">
         <v>102</v>
       </c>
@@ -3287,7 +3291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="21" thickBot="1">
+    <row r="48" spans="1:11" ht="20" thickBot="1">
       <c r="A48">
         <v>102</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="20">
+    <row r="49" spans="1:11" ht="19">
       <c r="A49">
         <v>102</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="20">
+    <row r="50" spans="1:11" ht="19">
       <c r="A50">
         <v>102</v>
       </c>
@@ -3386,7 +3390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="20">
+    <row r="51" spans="1:11" ht="19">
       <c r="A51">
         <v>102</v>
       </c>
@@ -3421,7 +3425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="20">
+    <row r="52" spans="1:11" ht="19">
       <c r="A52">
         <v>102</v>
       </c>
@@ -3456,7 +3460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="21" thickBot="1">
+    <row r="53" spans="1:11" ht="20" thickBot="1">
       <c r="A53">
         <v>102</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="20">
+    <row r="54" spans="1:11" ht="19">
       <c r="A54">
         <v>102</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="20">
+    <row r="55" spans="1:11" ht="19">
       <c r="A55">
         <v>103</v>
       </c>
@@ -3555,7 +3559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="20">
+    <row r="56" spans="1:11" ht="19">
       <c r="A56">
         <v>103</v>
       </c>
@@ -3581,7 +3585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="20">
+    <row r="57" spans="1:11" ht="19">
       <c r="A57">
         <v>103</v>
       </c>
@@ -3616,7 +3620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="20">
+    <row r="58" spans="1:11" ht="19">
       <c r="A58">
         <v>103</v>
       </c>
@@ -3645,7 +3649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="20">
+    <row r="59" spans="1:11" ht="19">
       <c r="A59">
         <v>103</v>
       </c>
@@ -3680,7 +3684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="21" thickBot="1">
+    <row r="60" spans="1:11" ht="20" thickBot="1">
       <c r="A60">
         <v>103</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="20">
+    <row r="61" spans="1:11" ht="19">
       <c r="A61">
         <v>103</v>
       </c>
@@ -3750,7 +3754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="20">
+    <row r="62" spans="1:11" ht="19">
       <c r="A62">
         <v>103</v>
       </c>
@@ -3785,7 +3789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="20">
+    <row r="63" spans="1:11" ht="19">
       <c r="A63">
         <v>103</v>
       </c>
@@ -3820,7 +3824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="20">
+    <row r="64" spans="1:11" ht="19">
       <c r="A64">
         <v>103</v>
       </c>
@@ -3855,7 +3859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="21" thickBot="1">
+    <row r="65" spans="1:11" ht="20" thickBot="1">
       <c r="A65">
         <v>103</v>
       </c>
@@ -3890,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="20">
+    <row r="66" spans="1:11" ht="19">
       <c r="A66">
         <v>103</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="20">
+    <row r="67" spans="1:11" ht="19">
       <c r="A67">
         <v>103</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="20">
+    <row r="68" spans="1:11" ht="19">
       <c r="A68">
         <v>103</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="21" thickBot="1">
+    <row r="69" spans="1:11" ht="20" thickBot="1">
       <c r="A69">
         <v>103</v>
       </c>
@@ -4024,7 +4028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="21" thickBot="1">
+    <row r="70" spans="1:11" ht="20" thickBot="1">
       <c r="A70">
         <v>103</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="20">
+    <row r="71" spans="1:11" ht="19">
       <c r="A71">
         <v>103</v>
       </c>
@@ -4094,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="20">
+    <row r="72" spans="1:11" ht="19">
       <c r="A72">
         <v>103</v>
       </c>
@@ -4129,7 +4133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="20">
+    <row r="73" spans="1:11" ht="19">
       <c r="A73">
         <v>103</v>
       </c>
@@ -4164,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="20">
+    <row r="74" spans="1:11" ht="19">
       <c r="A74">
         <v>103</v>
       </c>
@@ -4199,7 +4203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="21" thickBot="1">
+    <row r="75" spans="1:11" ht="20" thickBot="1">
       <c r="A75">
         <v>103</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="21">
+    <row r="76" spans="1:11" ht="19">
       <c r="A76">
         <v>103</v>
       </c>
@@ -4269,7 +4273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="20">
+    <row r="77" spans="1:11" ht="19">
       <c r="A77">
         <v>103</v>
       </c>
@@ -4304,7 +4308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="20">
+    <row r="78" spans="1:11" ht="19">
       <c r="A78">
         <v>103</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="20">
+    <row r="79" spans="1:11" ht="19">
       <c r="A79">
         <v>103</v>
       </c>
@@ -4374,7 +4378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="20">
+    <row r="80" spans="1:11" ht="19">
       <c r="A80">
         <v>103</v>
       </c>
@@ -4400,7 +4404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="21">
+    <row r="81" spans="1:11" ht="19">
       <c r="A81">
         <v>104</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="20">
+    <row r="82" spans="1:11" ht="19">
       <c r="A82">
         <v>104</v>
       </c>
@@ -4470,7 +4474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="20">
+    <row r="83" spans="1:11" ht="19">
       <c r="A83">
         <v>104</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="21">
+    <row r="84" spans="1:11" ht="19">
       <c r="A84">
         <v>104</v>
       </c>
@@ -4540,7 +4544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="21" thickBot="1">
+    <row r="85" spans="1:11" ht="20" thickBot="1">
       <c r="A85">
         <v>104</v>
       </c>
@@ -4575,7 +4579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="20">
+    <row r="86" spans="1:11" ht="19">
       <c r="A86">
         <v>104</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="20">
+    <row r="87" spans="1:11" ht="19">
       <c r="A87">
         <v>104</v>
       </c>
@@ -4645,7 +4649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="21">
+    <row r="88" spans="1:11" ht="19">
       <c r="A88">
         <v>104</v>
       </c>
@@ -4680,7 +4684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="21">
+    <row r="89" spans="1:11" ht="19">
       <c r="A89">
         <v>104</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="22" thickBot="1">
+    <row r="90" spans="1:11" ht="20" thickBot="1">
       <c r="A90">
         <v>104</v>
       </c>
@@ -4750,7 +4754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="20">
+    <row r="91" spans="1:11" ht="19">
       <c r="A91">
         <v>104</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="20">
+    <row r="92" spans="1:11" ht="19">
       <c r="A92">
         <v>104</v>
       </c>
@@ -4820,7 +4824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="20">
+    <row r="93" spans="1:11" ht="19">
       <c r="A93">
         <v>104</v>
       </c>
@@ -4855,7 +4859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="20">
+    <row r="94" spans="1:11" ht="19">
       <c r="A94">
         <v>104</v>
       </c>
@@ -4890,7 +4894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="21" thickBot="1">
+    <row r="95" spans="1:11" ht="20" thickBot="1">
       <c r="A95">
         <v>104</v>
       </c>
@@ -4925,7 +4929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="20">
+    <row r="96" spans="1:11" ht="19">
       <c r="A96">
         <v>104</v>
       </c>
@@ -4951,7 +4955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="20">
+    <row r="97" spans="1:11" ht="19">
       <c r="A97">
         <v>104</v>
       </c>
@@ -4986,7 +4990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="20">
+    <row r="98" spans="1:11" ht="19">
       <c r="A98">
         <v>104</v>
       </c>
@@ -5021,7 +5025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="20">
+    <row r="99" spans="1:11" ht="19">
       <c r="A99">
         <v>104</v>
       </c>
@@ -5056,7 +5060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="21" thickBot="1">
+    <row r="100" spans="1:11" ht="20" thickBot="1">
       <c r="A100">
         <v>104</v>
       </c>
@@ -5091,7 +5095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="20">
+    <row r="101" spans="1:11" ht="19">
       <c r="A101">
         <v>104</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="20">
+    <row r="102" spans="1:11" ht="19">
       <c r="A102">
         <v>104</v>
       </c>
@@ -5161,7 +5165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="20">
+    <row r="103" spans="1:11" ht="19">
       <c r="A103">
         <v>104</v>
       </c>
@@ -5190,7 +5194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="20">
+    <row r="104" spans="1:11" ht="19">
       <c r="A104">
         <v>104</v>
       </c>
@@ -5225,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="21" thickBot="1">
+    <row r="105" spans="1:11" ht="20" thickBot="1">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="20">
+    <row r="106" spans="1:11" ht="19">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5289,7 +5293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="20">
+    <row r="107" spans="1:11" ht="19">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5324,7 +5328,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="20">
+    <row r="108" spans="1:11" ht="19">
       <c r="A108">
         <v>105</v>
       </c>
@@ -5359,7 +5363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="20">
+    <row r="109" spans="1:11" ht="19">
       <c r="A109">
         <v>105</v>
       </c>
@@ -5394,7 +5398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="21" thickBot="1">
+    <row r="110" spans="1:11" ht="20" thickBot="1">
       <c r="A110">
         <v>105</v>
       </c>
@@ -5429,7 +5433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="20">
+    <row r="111" spans="1:11" ht="19">
       <c r="A111">
         <v>105</v>
       </c>
@@ -5464,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="20">
+    <row r="112" spans="1:11" ht="19">
       <c r="A112">
         <v>105</v>
       </c>
@@ -5499,7 +5503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="20">
+    <row r="113" spans="1:11" ht="19">
       <c r="A113">
         <v>105</v>
       </c>
@@ -5528,7 +5532,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="20">
+    <row r="114" spans="1:11" ht="19">
       <c r="A114">
         <v>105</v>
       </c>
@@ -5563,7 +5567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="21" thickBot="1">
+    <row r="115" spans="1:11" ht="20" thickBot="1">
       <c r="A115">
         <v>105</v>
       </c>
@@ -5598,7 +5602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="21">
+    <row r="116" spans="1:11" ht="19">
       <c r="A116">
         <v>105</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="20">
+    <row r="117" spans="1:11" ht="19">
       <c r="A117">
         <v>105</v>
       </c>
@@ -5668,7 +5672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="20">
+    <row r="118" spans="1:11" ht="19">
       <c r="A118">
         <v>105</v>
       </c>
@@ -5703,7 +5707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="20">
+    <row r="119" spans="1:11" ht="19">
       <c r="A119">
         <v>105</v>
       </c>
@@ -5738,7 +5742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="21" thickBot="1">
+    <row r="120" spans="1:11" ht="20" thickBot="1">
       <c r="A120">
         <v>105</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="20">
+    <row r="121" spans="1:11" ht="19">
       <c r="A121">
         <v>105</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="20">
+    <row r="122" spans="1:11" ht="19">
       <c r="A122">
         <v>105</v>
       </c>
@@ -5843,7 +5847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="20">
+    <row r="123" spans="1:11" ht="19">
       <c r="A123">
         <v>105</v>
       </c>
@@ -5878,7 +5882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="20">
+    <row r="124" spans="1:11" ht="19">
       <c r="A124">
         <v>105</v>
       </c>
@@ -5913,7 +5917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="21" thickBot="1">
+    <row r="125" spans="1:11" ht="20" thickBot="1">
       <c r="A125">
         <v>105</v>
       </c>
@@ -5948,7 +5952,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="20">
+    <row r="126" spans="1:11" ht="19">
       <c r="A126">
         <v>105</v>
       </c>
@@ -5983,7 +5987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="20">
+    <row r="127" spans="1:11" ht="19">
       <c r="A127">
         <v>105</v>
       </c>
@@ -6018,7 +6022,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="20">
+    <row r="128" spans="1:11" ht="19">
       <c r="A128">
         <v>105</v>
       </c>
@@ -6053,7 +6057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="20">
+    <row r="129" spans="1:11" ht="19">
       <c r="A129">
         <v>105</v>
       </c>
@@ -6088,7 +6092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="21" thickBot="1">
+    <row r="130" spans="1:11" ht="20" thickBot="1">
       <c r="A130">
         <v>105</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="20">
+    <row r="131" spans="1:11" ht="19">
       <c r="A131">
         <v>106</v>
       </c>
@@ -6152,7 +6156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="20">
+    <row r="132" spans="1:11" ht="19">
       <c r="A132">
         <v>106</v>
       </c>
@@ -6187,7 +6191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="20">
+    <row r="133" spans="1:11" ht="19">
       <c r="A133">
         <v>106</v>
       </c>
@@ -6222,7 +6226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="21" thickBot="1">
+    <row r="134" spans="1:11" ht="20" thickBot="1">
       <c r="A134">
         <v>106</v>
       </c>
@@ -6257,7 +6261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="20">
+    <row r="135" spans="1:11" ht="19">
       <c r="A135">
         <v>106</v>
       </c>
@@ -6292,7 +6296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="20">
+    <row r="136" spans="1:11" ht="19">
       <c r="A136">
         <v>106</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="20">
+    <row r="137" spans="1:11" ht="19">
       <c r="A137">
         <v>106</v>
       </c>
@@ -6362,7 +6366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="20">
+    <row r="138" spans="1:11" ht="19">
       <c r="A138">
         <v>106</v>
       </c>
@@ -6397,7 +6401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="21" thickBot="1">
+    <row r="139" spans="1:11" ht="20" thickBot="1">
       <c r="A139">
         <v>106</v>
       </c>
@@ -6432,7 +6436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="20">
+    <row r="140" spans="1:11" ht="19">
       <c r="A140">
         <v>106</v>
       </c>
@@ -6467,7 +6471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="20">
+    <row r="141" spans="1:11" ht="19">
       <c r="A141">
         <v>106</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="20">
+    <row r="142" spans="1:11" ht="19">
       <c r="A142">
         <v>106</v>
       </c>
@@ -6531,7 +6535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="20">
+    <row r="143" spans="1:11" ht="19">
       <c r="A143">
         <v>106</v>
       </c>
@@ -6566,7 +6570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="21" thickBot="1">
+    <row r="144" spans="1:11" ht="20" thickBot="1">
       <c r="A144">
         <v>106</v>
       </c>
@@ -6601,7 +6605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="20">
+    <row r="145" spans="1:11" ht="19">
       <c r="A145">
         <v>106</v>
       </c>
@@ -6630,7 +6634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="20">
+    <row r="146" spans="1:11" ht="19">
       <c r="A146">
         <v>106</v>
       </c>
@@ -6665,7 +6669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="20">
+    <row r="147" spans="1:11" ht="19">
       <c r="A147">
         <v>106</v>
       </c>
@@ -6700,7 +6704,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="20">
+    <row r="148" spans="1:11" ht="19">
       <c r="A148">
         <v>106</v>
       </c>
@@ -6735,7 +6739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="20">
+    <row r="149" spans="1:11" ht="19">
       <c r="A149">
         <v>106</v>
       </c>
@@ -6770,7 +6774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="21" thickBot="1">
+    <row r="150" spans="1:11" ht="20" thickBot="1">
       <c r="A150">
         <v>106</v>
       </c>
@@ -6805,7 +6809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="20">
+    <row r="151" spans="1:11" ht="19">
       <c r="A151">
         <v>106</v>
       </c>
@@ -6840,7 +6844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="20">
+    <row r="152" spans="1:11" ht="19">
       <c r="A152">
         <v>106</v>
       </c>
@@ -6875,7 +6879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="20">
+    <row r="153" spans="1:11" ht="19">
       <c r="A153">
         <v>106</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="20">
+    <row r="154" spans="1:11" ht="19">
       <c r="A154">
         <v>106</v>
       </c>
@@ -6945,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="21" thickBot="1">
+    <row r="155" spans="1:11" ht="20" thickBot="1">
       <c r="A155">
         <v>106</v>
       </c>
@@ -6980,7 +6984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="20">
+    <row r="156" spans="1:11" ht="19">
       <c r="A156">
         <v>107</v>
       </c>
@@ -7015,7 +7019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="20">
+    <row r="157" spans="1:11" ht="19">
       <c r="A157">
         <v>107</v>
       </c>
@@ -7050,7 +7054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="20">
+    <row r="158" spans="1:11" ht="19">
       <c r="A158">
         <v>107</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="21">
+    <row r="159" spans="1:11" ht="19">
       <c r="A159">
         <v>107</v>
       </c>
@@ -7120,7 +7124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="22" thickBot="1">
+    <row r="160" spans="1:11" ht="20" thickBot="1">
       <c r="A160">
         <v>107</v>
       </c>
@@ -7155,7 +7159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="20">
+    <row r="161" spans="1:11" ht="19">
       <c r="A161">
         <v>107</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="20">
+    <row r="162" spans="1:11" ht="19">
       <c r="A162">
         <v>107</v>
       </c>
@@ -7225,7 +7229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="20">
+    <row r="163" spans="1:11" ht="19">
       <c r="A163">
         <v>107</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="20">
+    <row r="164" spans="1:11" ht="19">
       <c r="A164">
         <v>107</v>
       </c>
@@ -7295,7 +7299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="21" thickBot="1">
+    <row r="165" spans="1:11" ht="20" thickBot="1">
       <c r="A165">
         <v>107</v>
       </c>
@@ -7330,7 +7334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="20">
+    <row r="166" spans="1:11" ht="19">
       <c r="A166">
         <v>107</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="21">
+    <row r="167" spans="1:11" ht="19">
       <c r="A167">
         <v>107</v>
       </c>
@@ -7400,7 +7404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="21">
+    <row r="168" spans="1:11" ht="19">
       <c r="A168">
         <v>107</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="20">
+    <row r="169" spans="1:11" ht="19">
       <c r="A169">
         <v>107</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="21" thickBot="1">
+    <row r="170" spans="1:11" ht="20" thickBot="1">
       <c r="A170">
         <v>107</v>
       </c>
@@ -7505,7 +7509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="20">
+    <row r="171" spans="1:11" ht="19">
       <c r="A171">
         <v>107</v>
       </c>
@@ -7540,7 +7544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="20">
+    <row r="172" spans="1:11" ht="19">
       <c r="A172">
         <v>107</v>
       </c>
@@ -7575,7 +7579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="21">
+    <row r="173" spans="1:11" ht="19">
       <c r="A173">
         <v>107</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="20">
+    <row r="174" spans="1:11" ht="19">
       <c r="A174">
         <v>107</v>
       </c>
@@ -7645,7 +7649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="21" thickBot="1">
+    <row r="175" spans="1:11" ht="20" thickBot="1">
       <c r="A175">
         <v>107</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="20">
+    <row r="176" spans="1:11" ht="19">
       <c r="A176">
         <v>107</v>
       </c>
@@ -7715,7 +7719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="20">
+    <row r="177" spans="1:11" ht="19">
       <c r="A177">
         <v>108</v>
       </c>
@@ -7750,7 +7754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="20">
+    <row r="178" spans="1:11" ht="19">
       <c r="A178">
         <v>108</v>
       </c>
@@ -7785,7 +7789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="20">
+    <row r="179" spans="1:11" ht="19">
       <c r="A179">
         <v>108</v>
       </c>
@@ -7820,7 +7824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="20">
+    <row r="180" spans="1:11" ht="19">
       <c r="A180">
         <v>108</v>
       </c>
@@ -7855,7 +7859,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="21" thickBot="1">
+    <row r="181" spans="1:11" ht="20" thickBot="1">
       <c r="A181">
         <v>108</v>
       </c>
@@ -7890,7 +7894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="20">
+    <row r="182" spans="1:11" ht="19">
       <c r="A182">
         <v>108</v>
       </c>
@@ -7925,7 +7929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="20">
+    <row r="183" spans="1:11" ht="19">
       <c r="A183">
         <v>108</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="20">
+    <row r="184" spans="1:11" ht="19">
       <c r="A184">
         <v>108</v>
       </c>
@@ -7995,7 +7999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="21" thickBot="1">
+    <row r="185" spans="1:11" ht="20" thickBot="1">
       <c r="A185">
         <v>108</v>
       </c>
@@ -8030,7 +8034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="20">
+    <row r="186" spans="1:11" ht="19">
       <c r="A186">
         <v>108</v>
       </c>
@@ -8065,7 +8069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="20">
+    <row r="187" spans="1:11" ht="19">
       <c r="A187">
         <v>108</v>
       </c>
@@ -8100,7 +8104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="20">
+    <row r="188" spans="1:11" ht="19">
       <c r="A188">
         <v>108</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="20">
+    <row r="189" spans="1:11" ht="19">
       <c r="A189">
         <v>108</v>
       </c>
@@ -8170,7 +8174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="21" thickBot="1">
+    <row r="190" spans="1:11" ht="20" thickBot="1">
       <c r="A190">
         <v>108</v>
       </c>
@@ -8205,7 +8209,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="20">
+    <row r="191" spans="1:11" ht="19">
       <c r="A191">
         <v>108</v>
       </c>
@@ -8240,7 +8244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="20">
+    <row r="192" spans="1:11" ht="19">
       <c r="A192">
         <v>108</v>
       </c>
@@ -8275,7 +8279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="20">
+    <row r="193" spans="1:11" ht="19">
       <c r="A193">
         <v>108</v>
       </c>
@@ -8310,7 +8314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="20">
+    <row r="194" spans="1:11" ht="19">
       <c r="A194">
         <v>108</v>
       </c>
@@ -8345,7 +8349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="22" thickBot="1">
+    <row r="195" spans="1:11" ht="20" thickBot="1">
       <c r="A195">
         <v>108</v>
       </c>
@@ -8377,6 +8381,41 @@
         <v>2</v>
       </c>
       <c r="K195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" ht="20" thickBot="1">
+      <c r="A196">
+        <v>108</v>
+      </c>
+      <c r="B196">
+        <v>195</v>
+      </c>
+      <c r="C196" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D196" t="s">
+        <v>20</v>
+      </c>
+      <c r="E196" s="11">
+        <v>30</v>
+      </c>
+      <c r="F196" s="27">
+        <v>29</v>
+      </c>
+      <c r="G196" s="13">
+        <v>41</v>
+      </c>
+      <c r="H196">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>2</v>
+      </c>
+      <c r="J196">
+        <v>2</v>
+      </c>
+      <c r="K196">
         <v>2</v>
       </c>
     </row>

--- a/龍頭/學生資料匯入範本-需求都是2.xlsx
+++ b/龍頭/學生資料匯入範本-需求都是2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aydenhuang/Documents/ProgranmCase/MyCursor/dragon/龍頭/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107E5C98-5102-0641-B2AE-43B84D94AD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF05E19C-93A6-814B-85C6-ACFDA2912F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1087,7 +1087,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,15 +1181,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1212,6 +1203,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1658,8 +1667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="G196" sqref="G196"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="J182" sqref="J182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1699,27 +1708,27 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="2" spans="1:11" ht="19">
+      <c r="A2">
+        <v>103</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>54</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2">
-        <v>80</v>
-      </c>
-      <c r="F2">
-        <v>70</v>
-      </c>
-      <c r="G2">
-        <v>90</v>
+        <v>16</v>
+      </c>
+      <c r="E2" s="44">
+        <v>23</v>
+      </c>
+      <c r="F2" s="45">
+        <v>18</v>
+      </c>
+      <c r="G2" s="45">
+        <v>33</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1734,27 +1743,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1">
-      <c r="A3" t="s">
-        <v>7</v>
+    <row r="3" spans="1:11" ht="20" thickBot="1">
+      <c r="A3">
+        <v>102</v>
       </c>
       <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
+        <v>52</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>75</v>
-      </c>
-      <c r="F3">
-        <v>65</v>
-      </c>
-      <c r="G3">
-        <v>85</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="37">
+        <v>23</v>
+      </c>
+      <c r="F3" s="37">
+        <v>21</v>
+      </c>
+      <c r="G3" s="37">
+        <v>32</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -1771,25 +1780,25 @@
     </row>
     <row r="4" spans="1:11" ht="19">
       <c r="A4">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>123</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G4" s="4">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>2</v>
@@ -1806,25 +1815,25 @@
     </row>
     <row r="5" spans="1:11" ht="19">
       <c r="A5">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>147</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="G5" s="8">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -1841,25 +1850,25 @@
     </row>
     <row r="6" spans="1:11" ht="19">
       <c r="A6">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G6" s="8">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -1876,22 +1885,22 @@
     </row>
     <row r="7" spans="1:11" ht="19">
       <c r="A7">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
+        <v>150</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="10">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="6">
+        <v>26</v>
       </c>
       <c r="F7" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G7" s="8">
         <v>35</v>
@@ -1911,25 +1920,25 @@
     </row>
     <row r="8" spans="1:11" ht="20" thickBot="1">
       <c r="A8">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>166</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E8" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F8" s="12">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G8" s="13">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1946,25 +1955,25 @@
     </row>
     <row r="9" spans="1:11" ht="19">
       <c r="A9">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>19</v>
+        <v>178</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G9" s="17">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1981,25 +1990,25 @@
     </row>
     <row r="10" spans="1:11" ht="19">
       <c r="A10">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="10">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="E10" s="6">
+        <v>27</v>
       </c>
       <c r="F10" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G10" s="8">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -2016,25 +2025,25 @@
     </row>
     <row r="11" spans="1:11" ht="19">
       <c r="A11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
+        <v>45</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E11" s="6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F11" s="7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G11" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11">
         <v>2</v>
@@ -2051,25 +2060,25 @@
     </row>
     <row r="12" spans="1:11" ht="19">
       <c r="A12">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6">
+        <v>28</v>
+      </c>
+      <c r="F12" s="7">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6">
-        <v>29</v>
-      </c>
-      <c r="F12" s="7">
-        <v>28</v>
-      </c>
       <c r="G12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -2086,25 +2095,25 @@
     </row>
     <row r="13" spans="1:11" ht="20" thickBot="1">
       <c r="A13">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>25</v>
+        <v>87</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="19">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="E13" s="11">
+        <v>24</v>
       </c>
       <c r="F13" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -2121,22 +2130,22 @@
     </row>
     <row r="14" spans="1:11" ht="19">
       <c r="A14">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>96</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E14" s="15">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="16">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="17">
         <v>37</v>
@@ -2156,25 +2165,25 @@
     </row>
     <row r="15" spans="1:11" ht="19">
       <c r="A15">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="10">
         <v>27</v>
       </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6">
-        <v>26</v>
-      </c>
       <c r="F15" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G15" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -2191,22 +2200,22 @@
     </row>
     <row r="16" spans="1:11" ht="19">
       <c r="A16">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>28</v>
+        <v>122</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>137</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E16" s="6">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F16" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G16" s="8">
         <v>34</v>
@@ -2226,25 +2235,25 @@
     </row>
     <row r="17" spans="1:11" ht="19">
       <c r="A17">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>30</v>
+        <v>124</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="6">
-        <v>34</v>
+        <v>20</v>
+      </c>
+      <c r="E17" s="10">
+        <v>28</v>
       </c>
       <c r="F17" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="G17" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2261,22 +2270,22 @@
     </row>
     <row r="18" spans="1:11" ht="20" thickBot="1">
       <c r="A18">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>31</v>
+        <v>125</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="11">
-        <v>29</v>
+      <c r="E18" s="19">
+        <v>26</v>
       </c>
       <c r="F18" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" s="13">
         <v>35</v>
@@ -2296,25 +2305,25 @@
     </row>
     <row r="19" spans="1:11" ht="19">
       <c r="A19">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E19" s="22">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F19" s="16">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G19" s="17">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2331,25 +2340,25 @@
     </row>
     <row r="20" spans="1:11" ht="19">
       <c r="A20">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E20" s="6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F20" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G20" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2366,22 +2375,22 @@
     </row>
     <row r="21" spans="1:11" ht="19">
       <c r="A21">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B21">
+        <v>152</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
       <c r="E21" s="6">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" s="8">
         <v>37</v>
@@ -2401,25 +2410,25 @@
     </row>
     <row r="22" spans="1:11" ht="19">
       <c r="A22">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>35</v>
+        <v>162</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E22" s="6">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F22" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2439,19 +2448,19 @@
         <v>101</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
       <c r="E23" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" s="12">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G23" s="13">
         <v>40</v>
@@ -2474,22 +2483,22 @@
         <v>101</v>
       </c>
       <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="15">
+        <v>27</v>
+      </c>
+      <c r="F24" s="16">
+        <v>24</v>
+      </c>
+      <c r="G24" s="17">
         <v>37</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" s="22">
-        <v>31</v>
-      </c>
-      <c r="F24" s="16">
-        <v>27</v>
-      </c>
-      <c r="G24" s="17">
-        <v>35</v>
       </c>
       <c r="H24">
         <v>2</v>
@@ -2509,17 +2518,23 @@
         <v>101</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="6">
         <v>29</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="F25" s="7">
+        <v>24</v>
+      </c>
+      <c r="G25" s="8">
+        <v>35</v>
+      </c>
       <c r="H25">
         <v>2</v>
       </c>
@@ -2538,22 +2553,22 @@
         <v>101</v>
       </c>
       <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E26" s="6">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F26" s="7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G26" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -2573,22 +2588,22 @@
         <v>101</v>
       </c>
       <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="10">
         <v>29</v>
       </c>
+      <c r="E27" s="6">
+        <v>31</v>
+      </c>
       <c r="F27" s="7">
         <v>24</v>
       </c>
       <c r="G27" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2608,22 +2623,22 @@
         <v>101</v>
       </c>
       <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>41</v>
+        <v>26</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="D28" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="11">
-        <v>27</v>
+      <c r="E28" s="19">
+        <v>29</v>
       </c>
       <c r="F28" s="12">
         <v>24</v>
       </c>
       <c r="G28" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -2640,20 +2655,26 @@
     </row>
     <row r="29" spans="1:11" ht="19">
       <c r="A29">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>42</v>
+        <v>27</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="E29" s="6">
+        <v>27</v>
+      </c>
+      <c r="F29" s="25">
+        <v>24</v>
+      </c>
+      <c r="G29" s="8">
+        <v>33</v>
+      </c>
       <c r="H29">
         <v>2</v>
       </c>
@@ -2672,22 +2693,22 @@
         <v>102</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="6">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F30" s="25">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G30" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -2707,19 +2728,19 @@
         <v>102</v>
       </c>
       <c r="B31">
-        <v>30</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="10">
-        <v>35</v>
+      <c r="E31" s="6">
+        <v>27</v>
       </c>
       <c r="F31" s="25">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G31" s="8">
         <v>37</v>
@@ -2742,22 +2763,22 @@
         <v>102</v>
       </c>
       <c r="B32">
-        <v>31</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="6">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="E32" s="10">
+        <v>30</v>
       </c>
       <c r="F32" s="25">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G32" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -2777,22 +2798,22 @@
         <v>102</v>
       </c>
       <c r="B33">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="11">
+        <v>13</v>
+      </c>
+      <c r="E33" s="19">
         <v>27</v>
       </c>
       <c r="F33" s="27">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G33" s="13">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -2812,22 +2833,22 @@
         <v>102</v>
       </c>
       <c r="B34">
-        <v>33</v>
-      </c>
-      <c r="C34" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="C34" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E34" s="15">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F34" s="28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G34" s="17">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -2847,22 +2868,22 @@
         <v>102</v>
       </c>
       <c r="B35">
-        <v>34</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E35" s="6">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F35" s="25">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G35" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>2</v>
@@ -2879,25 +2900,25 @@
     </row>
     <row r="36" spans="1:11" ht="19">
       <c r="A36">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36">
-        <v>35</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>49</v>
+        <v>78</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E36" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F36" s="25">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G36" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -2914,25 +2935,25 @@
     </row>
     <row r="37" spans="1:11" ht="19">
       <c r="A37">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B37">
-        <v>36</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>98</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="10">
+        <v>20</v>
+      </c>
+      <c r="E37" s="6">
         <v>29</v>
       </c>
       <c r="F37" s="25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G37" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -2949,19 +2970,19 @@
     </row>
     <row r="38" spans="1:11" ht="20" thickBot="1">
       <c r="A38">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B38">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>99</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E38" s="11">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F38" s="27">
         <v>24</v>
@@ -2984,16 +3005,16 @@
     </row>
     <row r="39" spans="1:11" ht="19">
       <c r="A39">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B39">
-        <v>38</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>52</v>
+        <v>108</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="E39" s="15">
         <v>27</v>
@@ -3019,25 +3040,25 @@
     </row>
     <row r="40" spans="1:11" ht="19">
       <c r="A40">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
         <v>24</v>
       </c>
       <c r="E40" s="6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F40" s="25">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G40" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -3054,25 +3075,25 @@
     </row>
     <row r="41" spans="1:11" ht="19">
       <c r="A41">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="10">
-        <v>30</v>
+      <c r="E41" s="6">
+        <v>27</v>
       </c>
       <c r="F41" s="25">
         <v>24</v>
       </c>
       <c r="G41" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -3089,25 +3110,25 @@
     </row>
     <row r="42" spans="1:11" ht="19">
       <c r="A42">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B42">
-        <v>41</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>55</v>
+        <v>155</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
-      </c>
-      <c r="E42" s="10">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="E42" s="6">
+        <v>28</v>
       </c>
       <c r="F42" s="25">
         <v>24</v>
       </c>
       <c r="G42" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -3124,20 +3145,26 @@
     </row>
     <row r="43" spans="1:11" ht="20" thickBot="1">
       <c r="A43">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B43">
-        <v>42</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>56</v>
+        <v>163</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="29"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
+      <c r="E43" s="11">
+        <v>29</v>
+      </c>
+      <c r="F43" s="27">
+        <v>24</v>
+      </c>
+      <c r="G43" s="13">
+        <v>37</v>
+      </c>
       <c r="H43">
         <v>2</v>
       </c>
@@ -3153,25 +3180,25 @@
     </row>
     <row r="44" spans="1:11" ht="19">
       <c r="A44">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B44">
-        <v>43</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>57</v>
+        <v>170</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>185</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
       <c r="E44" s="15">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F44" s="28">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G44" s="17">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -3188,25 +3215,25 @@
     </row>
     <row r="45" spans="1:11" ht="19">
       <c r="A45">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B45">
-        <v>44</v>
-      </c>
-      <c r="C45" s="14" t="s">
-        <v>58</v>
+        <v>179</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>194</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E45" s="6">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F45" s="25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G45" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>2</v>
@@ -3223,25 +3250,25 @@
     </row>
     <row r="46" spans="1:11" ht="19">
       <c r="A46">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B46">
-        <v>45</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>59</v>
+        <v>184</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="6">
         <v>29</v>
       </c>
-      <c r="E46" s="6">
-        <v>24</v>
-      </c>
       <c r="F46" s="25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G46" s="8">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -3258,25 +3285,25 @@
     </row>
     <row r="47" spans="1:11" ht="19">
       <c r="A47">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>185</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E47" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F47" s="25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G47" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -3293,25 +3320,25 @@
     </row>
     <row r="48" spans="1:11" ht="20" thickBot="1">
       <c r="A48">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B48">
-        <v>47</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>62</v>
+        <v>194</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>209</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E48" s="11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F48" s="27">
         <v>24</v>
       </c>
       <c r="G48" s="13">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -3328,20 +3355,26 @@
     </row>
     <row r="49" spans="1:11" ht="19">
       <c r="A49">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B49">
-        <v>48</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>20</v>
-      </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="E49" s="22">
+        <v>29</v>
+      </c>
+      <c r="F49" s="28">
+        <v>25</v>
+      </c>
+      <c r="G49" s="17">
+        <v>35</v>
+      </c>
       <c r="H49">
         <v>2</v>
       </c>
@@ -3357,25 +3390,25 @@
     </row>
     <row r="50" spans="1:11" ht="19">
       <c r="A50">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B50">
-        <v>49</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>64</v>
+        <v>14</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E50" s="6">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F50" s="25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G50" s="8">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -3392,25 +3425,25 @@
     </row>
     <row r="51" spans="1:11" ht="19">
       <c r="A51">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B51">
-        <v>50</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>65</v>
+        <v>18</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="6">
-        <v>29</v>
+      <c r="E51" s="10">
+        <v>31</v>
       </c>
       <c r="F51" s="25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G51" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -3427,25 +3460,25 @@
     </row>
     <row r="52" spans="1:11" ht="19">
       <c r="A52">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" s="6">
         <v>29</v>
       </c>
-      <c r="E52" s="6">
-        <v>26</v>
-      </c>
       <c r="F52" s="25">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G52" s="8">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H52">
         <v>2</v>
@@ -3462,25 +3495,25 @@
     </row>
     <row r="53" spans="1:11" ht="20" thickBot="1">
       <c r="A53">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
-        <v>52</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E53" s="11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F53" s="27">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G53" s="13">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H53">
         <v>2</v>
@@ -3497,20 +3530,26 @@
     </row>
     <row r="54" spans="1:11" ht="19">
       <c r="A54">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B54">
-        <v>53</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="17"/>
+        <v>24</v>
+      </c>
+      <c r="E54" s="22">
+        <v>30</v>
+      </c>
+      <c r="F54" s="28">
+        <v>25</v>
+      </c>
+      <c r="G54" s="17">
+        <v>36</v>
+      </c>
       <c r="H54">
         <v>2</v>
       </c>
@@ -3529,22 +3568,22 @@
         <v>103</v>
       </c>
       <c r="B55">
-        <v>54</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="34">
-        <v>23</v>
-      </c>
-      <c r="F55" s="35">
-        <v>18</v>
-      </c>
-      <c r="G55" s="36">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="E55" s="6">
+        <v>31</v>
+      </c>
+      <c r="F55" s="25">
+        <v>25</v>
+      </c>
+      <c r="G55" s="8">
+        <v>36</v>
       </c>
       <c r="H55">
         <v>2</v>
@@ -3564,14 +3603,23 @@
         <v>103</v>
       </c>
       <c r="B56">
-        <v>55</v>
-      </c>
-      <c r="C56" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="8"/>
+        <v>76</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56" s="6">
+        <v>30</v>
+      </c>
+      <c r="F56" s="25">
+        <v>25</v>
+      </c>
+      <c r="G56" s="8">
+        <v>38</v>
+      </c>
       <c r="H56">
         <v>2</v>
       </c>
@@ -3590,22 +3638,22 @@
         <v>103</v>
       </c>
       <c r="B57">
-        <v>56</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>92</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
-      </c>
-      <c r="E57" s="10">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="E57" s="6">
+        <v>32</v>
       </c>
       <c r="F57" s="25">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G57" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -3622,20 +3670,26 @@
     </row>
     <row r="58" spans="1:11" ht="19">
       <c r="A58">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="D58" t="s">
         <v>24</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="8"/>
+      <c r="E58" s="6">
+        <v>29</v>
+      </c>
+      <c r="F58" s="25">
+        <v>25</v>
+      </c>
+      <c r="G58" s="8">
+        <v>35</v>
+      </c>
       <c r="H58">
         <v>2</v>
       </c>
@@ -3651,13 +3705,13 @@
     </row>
     <row r="59" spans="1:11" ht="19">
       <c r="A59">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B59">
-        <v>58</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="D59" t="s">
         <v>24</v>
@@ -3666,10 +3720,10 @@
         <v>29</v>
       </c>
       <c r="F59" s="25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G59" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H59">
         <v>2</v>
@@ -3686,25 +3740,25 @@
     </row>
     <row r="60" spans="1:11" ht="20" thickBot="1">
       <c r="A60">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F60" s="27">
         <v>25</v>
       </c>
       <c r="G60" s="13">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -3721,25 +3775,25 @@
     </row>
     <row r="61" spans="1:11" ht="19">
       <c r="A61">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="22">
-        <v>34</v>
+        <v>24</v>
+      </c>
+      <c r="E61" s="15">
+        <v>28</v>
       </c>
       <c r="F61" s="28">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G61" s="17">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -3756,25 +3810,25 @@
     </row>
     <row r="62" spans="1:11" ht="19">
       <c r="A62">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E62" s="6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F62" s="25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G62" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -3791,25 +3845,25 @@
     </row>
     <row r="63" spans="1:11" ht="19">
       <c r="A63">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63">
-        <v>62</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>77</v>
+        <v>119</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E63" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F63" s="25">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G63" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -3826,25 +3880,25 @@
     </row>
     <row r="64" spans="1:11" ht="19">
       <c r="A64">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64">
-        <v>63</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>78</v>
+        <v>127</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="10">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="E64" s="6">
+        <v>28</v>
       </c>
       <c r="F64" s="25">
         <v>25</v>
       </c>
       <c r="G64" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -3861,22 +3915,22 @@
     </row>
     <row r="65" spans="1:11" ht="20" thickBot="1">
       <c r="A65">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B65">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="D65" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="11">
-        <v>32</v>
+      <c r="E65" s="19">
+        <v>29</v>
       </c>
       <c r="F65" s="27">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="G65" s="13">
         <v>36</v>
@@ -3896,25 +3950,25 @@
     </row>
     <row r="66" spans="1:11" ht="19">
       <c r="A66">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B66">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="D66" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="15">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F66" s="28">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="G66" s="17">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -3931,22 +3985,22 @@
     </row>
     <row r="67" spans="1:11" ht="19">
       <c r="A67">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B67">
-        <v>66</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E67" s="6">
         <v>30</v>
       </c>
       <c r="F67" s="25">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G67" s="8">
         <v>42</v>
@@ -3966,25 +4020,25 @@
     </row>
     <row r="68" spans="1:11" ht="19">
       <c r="A68">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B68">
-        <v>67</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>82</v>
+        <v>145</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
-      </c>
-      <c r="E68" s="10">
-        <v>28</v>
+        <v>20</v>
+      </c>
+      <c r="E68" s="6">
+        <v>30</v>
       </c>
       <c r="F68" s="25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G68" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>2</v>
@@ -4001,20 +4055,26 @@
     </row>
     <row r="69" spans="1:11" ht="20" thickBot="1">
       <c r="A69">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B69">
-        <v>68</v>
-      </c>
-      <c r="C69" s="32" t="s">
-        <v>83</v>
+        <v>151</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>166</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
       </c>
-      <c r="E69" s="11"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="13"/>
+      <c r="E69" s="11">
+        <v>31</v>
+      </c>
+      <c r="F69" s="27">
+        <v>25</v>
+      </c>
+      <c r="G69" s="13">
+        <v>35</v>
+      </c>
       <c r="H69">
         <v>2</v>
       </c>
@@ -4030,25 +4090,25 @@
     </row>
     <row r="70" spans="1:11" ht="20" thickBot="1">
       <c r="A70">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B70">
-        <v>69</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>84</v>
+        <v>154</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
       </c>
       <c r="E70" s="11">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F70" s="27">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G70" s="13">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -4065,25 +4125,25 @@
     </row>
     <row r="71" spans="1:11" ht="19">
       <c r="A71">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B71">
-        <v>70</v>
-      </c>
-      <c r="C71" s="14" t="s">
-        <v>85</v>
+        <v>157</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>172</v>
       </c>
       <c r="D71" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E71" s="15">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F71" s="28">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G71" s="17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -4100,19 +4160,19 @@
     </row>
     <row r="72" spans="1:11" ht="19">
       <c r="A72">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B72">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>86</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E72" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F72" s="25">
         <v>25</v>
@@ -4135,25 +4195,25 @@
     </row>
     <row r="73" spans="1:11" ht="19">
       <c r="A73">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>87</v>
+        <v>190</v>
       </c>
       <c r="D73" t="s">
         <v>20</v>
       </c>
       <c r="E73" s="6">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F73" s="25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G73" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -4170,22 +4230,22 @@
     </row>
     <row r="74" spans="1:11" ht="19">
       <c r="A74">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="D74" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E74" s="6">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F74" s="25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G74" s="8">
         <v>38</v>
@@ -4205,25 +4265,25 @@
     </row>
     <row r="75" spans="1:11" ht="20" thickBot="1">
       <c r="A75">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B75">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D75" t="s">
         <v>20</v>
       </c>
       <c r="E75" s="11">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F75" s="27">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G75" s="13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -4240,25 +4300,25 @@
     </row>
     <row r="76" spans="1:11" ht="19">
       <c r="A76">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B76">
-        <v>75</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>90</v>
+        <v>189</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="D76" t="s">
         <v>20</v>
       </c>
       <c r="E76" s="15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F76" s="28">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G76" s="17">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H76">
         <v>2</v>
@@ -4275,19 +4335,19 @@
     </row>
     <row r="77" spans="1:11" ht="19">
       <c r="A77">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B77">
-        <v>76</v>
+        <v>190</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
         <v>20</v>
       </c>
       <c r="E77" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F77" s="25">
         <v>25</v>
@@ -4310,25 +4370,25 @@
     </row>
     <row r="78" spans="1:11" ht="19">
       <c r="A78">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B78">
-        <v>77</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>92</v>
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E78" s="6">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F78" s="25">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G78" s="8">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -4345,25 +4405,25 @@
     </row>
     <row r="79" spans="1:11" ht="19">
       <c r="A79">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B79">
-        <v>78</v>
-      </c>
-      <c r="C79" s="38" t="s">
-        <v>93</v>
+        <v>12</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
-      </c>
-      <c r="E79" s="6">
+        <v>13</v>
+      </c>
+      <c r="E79" s="10">
         <v>30</v>
       </c>
       <c r="F79" s="25">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G79" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -4380,16 +4440,25 @@
     </row>
     <row r="80" spans="1:11" ht="19">
       <c r="A80">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B80">
-        <v>79</v>
-      </c>
-      <c r="C80" s="24" t="s">
-        <v>94</v>
+        <v>19</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="E80" s="37">
+        <v>30</v>
+      </c>
+      <c r="F80" s="37">
+        <v>26</v>
+      </c>
+      <c r="G80" s="37">
+        <v>38</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -4406,22 +4475,22 @@
     </row>
     <row r="81" spans="1:11" ht="19">
       <c r="A81">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B81">
-        <v>80</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>95</v>
+        <v>36</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
-      </c>
-      <c r="E81" s="6">
-        <v>31</v>
+        <v>13</v>
+      </c>
+      <c r="E81" s="10">
+        <v>29</v>
       </c>
       <c r="F81" s="25">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G81" s="8">
         <v>37</v>
@@ -4441,25 +4510,25 @@
     </row>
     <row r="82" spans="1:11" ht="19">
       <c r="A82">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B82">
-        <v>81</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E82" s="6">
         <v>28</v>
       </c>
       <c r="F82" s="25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G82" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -4476,22 +4545,22 @@
     </row>
     <row r="83" spans="1:11" ht="19">
       <c r="A83">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B83">
-        <v>82</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>97</v>
+        <v>50</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E83" s="6">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F83" s="25">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="G83" s="8">
         <v>37</v>
@@ -4511,25 +4580,25 @@
     </row>
     <row r="84" spans="1:11" ht="19">
       <c r="A84">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B84">
-        <v>83</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>98</v>
+        <v>67</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>82</v>
       </c>
       <c r="D84" t="s">
         <v>24</v>
       </c>
-      <c r="E84" s="6">
-        <v>32</v>
+      <c r="E84" s="10">
+        <v>28</v>
       </c>
       <c r="F84" s="25">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G84" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -4546,25 +4615,25 @@
     </row>
     <row r="85" spans="1:11" ht="20" thickBot="1">
       <c r="A85">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B85">
-        <v>84</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>99</v>
+        <v>115</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="D85" t="s">
         <v>24</v>
       </c>
       <c r="E85" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F85" s="27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G85" s="13">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -4581,25 +4650,25 @@
     </row>
     <row r="86" spans="1:11" ht="19">
       <c r="A86">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B86">
-        <v>85</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>100</v>
+        <v>121</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>136</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E86" s="15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F86" s="28">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G86" s="17">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -4616,25 +4685,25 @@
     </row>
     <row r="87" spans="1:11" ht="19">
       <c r="A87">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B87">
-        <v>86</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>101</v>
+        <v>136</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="D87" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="10">
-        <v>30</v>
+      <c r="E87" s="6">
+        <v>28</v>
       </c>
       <c r="F87" s="25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G87" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -4651,25 +4720,25 @@
     </row>
     <row r="88" spans="1:11" ht="19">
       <c r="A88">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B88">
-        <v>87</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>102</v>
+        <v>141</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E88" s="6">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F88" s="25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G88" s="8">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -4686,25 +4755,25 @@
     </row>
     <row r="89" spans="1:11" ht="19">
       <c r="A89">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B89">
-        <v>88</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>103</v>
+        <v>158</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>173</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E89" s="6">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F89" s="25">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G89" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H89">
         <v>2</v>
@@ -4721,25 +4790,25 @@
     </row>
     <row r="90" spans="1:11" ht="20" thickBot="1">
       <c r="A90">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B90">
-        <v>89</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>104</v>
+        <v>160</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E90" s="11">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F90" s="27">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="G90" s="13">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>2</v>
@@ -4756,25 +4825,25 @@
     </row>
     <row r="91" spans="1:11" ht="19">
       <c r="A91">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B91">
-        <v>90</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>105</v>
+        <v>164</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>179</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E91" s="15">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F91" s="28">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G91" s="17">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -4791,13 +4860,13 @@
     </row>
     <row r="92" spans="1:11" ht="19">
       <c r="A92">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B92">
-        <v>91</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>106</v>
+        <v>173</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -4806,10 +4875,10 @@
         <v>33</v>
       </c>
       <c r="F92" s="25">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G92" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -4826,25 +4895,25 @@
     </row>
     <row r="93" spans="1:11" ht="19">
       <c r="A93">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B93">
-        <v>92</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>107</v>
+        <v>177</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
       </c>
       <c r="E93" s="6">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F93" s="25">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G93" s="8">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -4861,25 +4930,25 @@
     </row>
     <row r="94" spans="1:11" ht="19">
       <c r="A94">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B94">
-        <v>93</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>108</v>
+        <v>180</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
       </c>
       <c r="E94" s="6">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F94" s="25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G94" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -4896,25 +4965,25 @@
     </row>
     <row r="95" spans="1:11" ht="20" thickBot="1">
       <c r="A95">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B95">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
       <c r="D95" t="s">
         <v>20</v>
       </c>
       <c r="E95" s="11">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F95" s="27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G95" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -4931,16 +5000,25 @@
     </row>
     <row r="96" spans="1:11" ht="19">
       <c r="A96">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B96">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>110</v>
+        <v>28</v>
       </c>
       <c r="D96" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="E96" s="37">
+        <v>31</v>
+      </c>
+      <c r="F96" s="37">
+        <v>27</v>
+      </c>
+      <c r="G96" s="37">
+        <v>34</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -4957,25 +5035,25 @@
     </row>
     <row r="97" spans="1:11" ht="19">
       <c r="A97">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>96</v>
-      </c>
-      <c r="C97" s="14" t="s">
-        <v>111</v>
+        <v>23</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="D97" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="6">
-        <v>24</v>
+      <c r="E97" s="10">
+        <v>31</v>
       </c>
       <c r="F97" s="25">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G97" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -4992,25 +5070,25 @@
     </row>
     <row r="98" spans="1:11" ht="19">
       <c r="A98">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>97</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>112</v>
+        <v>31</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E98" s="6">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F98" s="25">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G98" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -5027,25 +5105,25 @@
     </row>
     <row r="99" spans="1:11" ht="19">
       <c r="A99">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>98</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>113</v>
+        <v>33</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D99" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E99" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F99" s="25">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G99" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -5062,25 +5140,25 @@
     </row>
     <row r="100" spans="1:11" ht="20" thickBot="1">
       <c r="A100">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B100">
-        <v>99</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>114</v>
+        <v>43</v>
+      </c>
+      <c r="C100" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="D100" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="11">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F100" s="27">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G100" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -5097,25 +5175,25 @@
     </row>
     <row r="101" spans="1:11" ht="19">
       <c r="A101">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101">
-        <v>100</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>115</v>
+        <v>66</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D101" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E101" s="15">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F101" s="28">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G101" s="17">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -5132,19 +5210,19 @@
     </row>
     <row r="102" spans="1:11" ht="19">
       <c r="A102">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102">
-        <v>101</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>116</v>
+        <v>75</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="D102" t="s">
         <v>20</v>
       </c>
       <c r="E102" s="6">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F102" s="25">
         <v>27</v>
@@ -5170,17 +5248,23 @@
         <v>104</v>
       </c>
       <c r="B103">
-        <v>102</v>
-      </c>
-      <c r="C103" s="32" t="s">
-        <v>117</v>
+        <v>81</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="D103" t="s">
-        <v>20</v>
-      </c>
-      <c r="E103" s="6"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="E103" s="6">
+        <v>28</v>
+      </c>
+      <c r="F103" s="25">
+        <v>27</v>
+      </c>
+      <c r="G103" s="8">
+        <v>37</v>
+      </c>
       <c r="H103">
         <v>2</v>
       </c>
@@ -5199,22 +5283,22 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>103</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>118</v>
+        <v>86</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="D104" t="s">
-        <v>20</v>
-      </c>
-      <c r="E104" s="6">
-        <v>33</v>
+        <v>24</v>
+      </c>
+      <c r="E104" s="10">
+        <v>30</v>
       </c>
       <c r="F104" s="25">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G104" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>2</v>
@@ -5234,17 +5318,23 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>104</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>119</v>
+        <v>93</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>108</v>
       </c>
       <c r="D105" t="s">
-        <v>20</v>
-      </c>
-      <c r="E105" s="11"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="E105" s="11">
+        <v>29</v>
+      </c>
+      <c r="F105" s="27">
+        <v>27</v>
+      </c>
+      <c r="G105" s="13">
+        <v>38</v>
+      </c>
       <c r="H105">
         <v>2</v>
       </c>
@@ -5260,25 +5350,25 @@
     </row>
     <row r="106" spans="1:11" ht="19">
       <c r="A106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106">
-        <v>105</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>120</v>
+        <v>94</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E106" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F106" s="25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G106" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -5295,25 +5385,25 @@
     </row>
     <row r="107" spans="1:11" ht="19">
       <c r="A107">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107">
-        <v>106</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>116</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E107" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F107" s="25">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G107" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -5330,25 +5420,25 @@
     </row>
     <row r="108" spans="1:11" ht="19">
       <c r="A108">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108">
-        <v>107</v>
-      </c>
-      <c r="C108" s="9" t="s">
-        <v>122</v>
+        <v>159</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
       </c>
       <c r="E108" s="6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F108" s="25">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G108" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -5365,25 +5455,25 @@
     </row>
     <row r="109" spans="1:11" ht="19">
       <c r="A109">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
       </c>
       <c r="E109" s="6">
+        <v>31</v>
+      </c>
+      <c r="F109" s="25">
         <v>27</v>
       </c>
-      <c r="F109" s="25">
-        <v>24</v>
-      </c>
       <c r="G109" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -5400,25 +5490,25 @@
     </row>
     <row r="110" spans="1:11" ht="20" thickBot="1">
       <c r="A110">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110">
-        <v>109</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>124</v>
+        <v>167</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E110" s="11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F110" s="27">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G110" s="13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>2</v>
@@ -5435,25 +5525,25 @@
     </row>
     <row r="111" spans="1:11" ht="19">
       <c r="A111">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B111">
-        <v>110</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>125</v>
+        <v>183</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>198</v>
       </c>
       <c r="D111" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E111" s="15">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F111" s="28">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G111" s="17">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H111">
         <v>2</v>
@@ -5470,25 +5560,25 @@
     </row>
     <row r="112" spans="1:11" ht="19">
       <c r="A112">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B112">
-        <v>111</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>126</v>
+        <v>191</v>
+      </c>
+      <c r="C112" s="14" t="s">
+        <v>206</v>
       </c>
       <c r="D112" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E112" s="6">
+        <v>29</v>
+      </c>
+      <c r="F112" s="25">
         <v>27</v>
       </c>
-      <c r="F112" s="25">
-        <v>25</v>
-      </c>
       <c r="G112" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -5505,20 +5595,26 @@
     </row>
     <row r="113" spans="1:11" ht="19">
       <c r="A113">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B113">
-        <v>112</v>
-      </c>
-      <c r="C113" s="32" t="s">
-        <v>127</v>
+        <v>7</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D113" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" s="6"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="E113" s="6">
+        <v>33</v>
+      </c>
+      <c r="F113" s="25">
+        <v>28</v>
+      </c>
+      <c r="G113" s="8">
+        <v>39</v>
+      </c>
       <c r="H113">
         <v>2</v>
       </c>
@@ -5534,25 +5630,25 @@
     </row>
     <row r="114" spans="1:11" ht="19">
       <c r="A114">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B114">
-        <v>113</v>
-      </c>
-      <c r="C114" s="39" t="s">
-        <v>128</v>
+        <v>9</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D114" t="s">
-        <v>24</v>
-      </c>
-      <c r="E114" s="6">
+        <v>13</v>
+      </c>
+      <c r="E114" s="10">
         <v>31</v>
       </c>
       <c r="F114" s="25">
         <v>28</v>
       </c>
       <c r="G114" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -5569,25 +5665,25 @@
     </row>
     <row r="115" spans="1:11" ht="20" thickBot="1">
       <c r="A115">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B115">
-        <v>114</v>
-      </c>
-      <c r="C115" s="14" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="D115" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E115" s="11">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F115" s="27">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G115" s="13">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -5604,25 +5700,25 @@
     </row>
     <row r="116" spans="1:11" ht="19">
       <c r="A116">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B116">
-        <v>115</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>130</v>
+        <v>11</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D116" t="s">
         <v>24</v>
       </c>
       <c r="E116" s="15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F116" s="28">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G116" s="17">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -5639,25 +5735,25 @@
     </row>
     <row r="117" spans="1:11" ht="19">
       <c r="A117">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B117">
-        <v>116</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>131</v>
+        <v>44</v>
+      </c>
+      <c r="C117" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="D117" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E117" s="6">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F117" s="25">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G117" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -5674,22 +5770,22 @@
     </row>
     <row r="118" spans="1:11" ht="19">
       <c r="A118">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B118">
-        <v>117</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>132</v>
+        <v>49</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>64</v>
       </c>
       <c r="D118" t="s">
-        <v>24</v>
-      </c>
-      <c r="E118" s="10">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="E118" s="6">
+        <v>32</v>
       </c>
       <c r="F118" s="25">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G118" s="8">
         <v>36</v>
@@ -5709,25 +5805,25 @@
     </row>
     <row r="119" spans="1:11" ht="19">
       <c r="A119">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B119">
-        <v>118</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>133</v>
+        <v>58</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D119" t="s">
         <v>24</v>
       </c>
       <c r="E119" s="6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F119" s="25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G119" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H119">
         <v>2</v>
@@ -5744,25 +5840,25 @@
     </row>
     <row r="120" spans="1:11" ht="20" thickBot="1">
       <c r="A120">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B120">
-        <v>119</v>
-      </c>
-      <c r="C120" s="14" t="s">
-        <v>134</v>
+        <v>61</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="D120" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E120" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F120" s="27">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G120" s="13">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H120">
         <v>2</v>
@@ -5779,22 +5875,22 @@
     </row>
     <row r="121" spans="1:11" ht="19">
       <c r="A121">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B121">
-        <v>120</v>
-      </c>
-      <c r="C121" s="21" t="s">
-        <v>135</v>
+        <v>72</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="D121" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="E121" s="15">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F121" s="28">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G121" s="17">
         <v>37</v>
@@ -5814,25 +5910,25 @@
     </row>
     <row r="122" spans="1:11" ht="19">
       <c r="A122">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B122">
-        <v>121</v>
-      </c>
-      <c r="C122" s="24" t="s">
-        <v>136</v>
+        <v>73</v>
+      </c>
+      <c r="C122" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="D122" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E122" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F122" s="25">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G122" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -5849,25 +5945,25 @@
     </row>
     <row r="123" spans="1:11" ht="19">
       <c r="A123">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B123">
-        <v>122</v>
-      </c>
-      <c r="C123" s="24" t="s">
-        <v>137</v>
+        <v>83</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="D123" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E123" s="6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F123" s="25">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G123" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H123">
         <v>2</v>
@@ -5884,25 +5980,25 @@
     </row>
     <row r="124" spans="1:11" ht="19">
       <c r="A124">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B124">
-        <v>123</v>
-      </c>
-      <c r="C124" s="14" t="s">
-        <v>138</v>
+        <v>85</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="D124" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E124" s="6">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F124" s="25">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G124" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -5922,22 +6018,22 @@
         <v>105</v>
       </c>
       <c r="B125">
-        <v>124</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>139</v>
+        <v>113</v>
+      </c>
+      <c r="C125" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="D125" t="s">
-        <v>20</v>
-      </c>
-      <c r="E125" s="19">
+        <v>24</v>
+      </c>
+      <c r="E125" s="11">
+        <v>31</v>
+      </c>
+      <c r="F125" s="27">
         <v>28</v>
       </c>
-      <c r="F125" s="27">
-        <v>23</v>
-      </c>
       <c r="G125" s="13">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -5954,25 +6050,25 @@
     </row>
     <row r="126" spans="1:11" ht="19">
       <c r="A126">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B126">
-        <v>125</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>140</v>
+        <v>131</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="D126" t="s">
-        <v>20</v>
-      </c>
-      <c r="E126" s="22">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="E126" s="15">
+        <v>30</v>
       </c>
       <c r="F126" s="28">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G126" s="17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H126">
         <v>2</v>
@@ -5989,25 +6085,25 @@
     </row>
     <row r="127" spans="1:11" ht="19">
       <c r="A127">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B127">
-        <v>126</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="D127" t="s">
-        <v>20</v>
-      </c>
-      <c r="E127" s="10">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="E127" s="6">
+        <v>29</v>
       </c>
       <c r="F127" s="25">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G127" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H127">
         <v>2</v>
@@ -6024,25 +6120,25 @@
     </row>
     <row r="128" spans="1:11" ht="19">
       <c r="A128">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B128">
-        <v>127</v>
-      </c>
-      <c r="C128" s="14" t="s">
-        <v>142</v>
+        <v>168</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="D128" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E128" s="6">
+        <v>33</v>
+      </c>
+      <c r="F128" s="25">
         <v>28</v>
       </c>
-      <c r="F128" s="25">
-        <v>25</v>
-      </c>
       <c r="G128" s="8">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -6059,25 +6155,25 @@
     </row>
     <row r="129" spans="1:11" ht="19">
       <c r="A129">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B129">
-        <v>128</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>143</v>
+        <v>174</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="D129" t="s">
-        <v>61</v>
-      </c>
-      <c r="E129" s="10">
-        <v>26</v>
+        <v>20</v>
+      </c>
+      <c r="E129" s="6">
+        <v>34</v>
       </c>
       <c r="F129" s="25">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G129" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H129">
         <v>2</v>
@@ -6094,20 +6190,26 @@
     </row>
     <row r="130" spans="1:11" ht="20" thickBot="1">
       <c r="A130">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B130">
-        <v>129</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>144</v>
+        <v>35</v>
+      </c>
+      <c r="C130" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="D130" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="19"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="13"/>
+        <v>13</v>
+      </c>
+      <c r="E130" s="11">
+        <v>31</v>
+      </c>
+      <c r="F130" s="27">
+        <v>29</v>
+      </c>
+      <c r="G130" s="13">
+        <v>38</v>
+      </c>
       <c r="H130">
         <v>2</v>
       </c>
@@ -6123,25 +6225,25 @@
     </row>
     <row r="131" spans="1:11" ht="19">
       <c r="A131">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B131">
-        <v>130</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>145</v>
+        <v>74</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="D131" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E131" s="6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F131" s="25">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G131" s="8">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>2</v>
@@ -6158,25 +6260,25 @@
     </row>
     <row r="132" spans="1:11" ht="19">
       <c r="A132">
+        <v>104</v>
+      </c>
+      <c r="B132">
+        <v>91</v>
+      </c>
+      <c r="C132" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B132">
-        <v>131</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="D132" t="s">
         <v>24</v>
       </c>
       <c r="E132" s="6">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F132" s="25">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G132" s="8">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -6193,25 +6295,25 @@
     </row>
     <row r="133" spans="1:11" ht="19">
       <c r="A133">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B133">
-        <v>132</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>147</v>
+        <v>97</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="D133" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E133" s="6">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F133" s="25">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G133" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H133">
         <v>2</v>
@@ -6231,19 +6333,19 @@
         <v>106</v>
       </c>
       <c r="B134">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D134" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="19">
+      <c r="E134" s="11">
+        <v>33</v>
+      </c>
+      <c r="F134" s="27">
         <v>29</v>
-      </c>
-      <c r="F134" s="27">
-        <v>25</v>
       </c>
       <c r="G134" s="13">
         <v>36</v>
@@ -6263,25 +6365,25 @@
     </row>
     <row r="135" spans="1:11" ht="19">
       <c r="A135">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B135">
-        <v>134</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>149</v>
+        <v>172</v>
+      </c>
+      <c r="C135" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="D135" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E135" s="15">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F135" s="28">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G135" s="17">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H135">
         <v>2</v>
@@ -6298,25 +6400,25 @@
     </row>
     <row r="136" spans="1:11" ht="19">
       <c r="A136">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B136">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D136" t="s">
         <v>24</v>
       </c>
       <c r="E136" s="6">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F136" s="25">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G136" s="8">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>2</v>
@@ -6333,25 +6435,25 @@
     </row>
     <row r="137" spans="1:11" ht="19">
       <c r="A137">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B137">
-        <v>136</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>151</v>
+        <v>192</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>207</v>
       </c>
       <c r="D137" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E137" s="6">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F137" s="25">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G137" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>2</v>
@@ -6368,16 +6470,16 @@
     </row>
     <row r="138" spans="1:11" ht="19">
       <c r="A138">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B138">
-        <v>137</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>152</v>
+        <v>193</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>208</v>
       </c>
       <c r="D138" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E138" s="6">
         <v>33</v>
@@ -6386,7 +6488,7 @@
         <v>29</v>
       </c>
       <c r="G138" s="8">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -6403,25 +6505,25 @@
     </row>
     <row r="139" spans="1:11" ht="20" thickBot="1">
       <c r="A139">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B139">
-        <v>138</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>153</v>
+        <v>195</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>214</v>
       </c>
       <c r="D139" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E139" s="11">
+        <v>30</v>
+      </c>
+      <c r="F139" s="27">
         <v>29</v>
       </c>
-      <c r="F139" s="27">
-        <v>28</v>
-      </c>
       <c r="G139" s="13">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H139">
         <v>2</v>
@@ -6438,25 +6540,25 @@
     </row>
     <row r="140" spans="1:11" ht="19">
       <c r="A140">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B140">
-        <v>139</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>154</v>
+        <v>16</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="D140" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E140" s="15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F140" s="28">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G140" s="17">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -6473,20 +6575,26 @@
     </row>
     <row r="141" spans="1:11" ht="19">
       <c r="A141">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B141">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="D141" t="s">
         <v>24</v>
       </c>
-      <c r="E141" s="6"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="8"/>
+      <c r="E141" s="6">
+        <v>30</v>
+      </c>
+      <c r="F141" s="25">
+        <v>30</v>
+      </c>
+      <c r="G141" s="8">
+        <v>36</v>
+      </c>
       <c r="H141">
         <v>2</v>
       </c>
@@ -6502,25 +6610,25 @@
     </row>
     <row r="142" spans="1:11" ht="19">
       <c r="A142">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B142">
-        <v>141</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>156</v>
+        <v>69</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="D142" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E142" s="6">
+        <v>33</v>
+      </c>
+      <c r="F142" s="25">
         <v>30</v>
       </c>
-      <c r="F142" s="25">
-        <v>26</v>
-      </c>
       <c r="G142" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H142">
         <v>2</v>
@@ -6537,25 +6645,25 @@
     </row>
     <row r="143" spans="1:11" ht="19">
       <c r="A143">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B143">
-        <v>142</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>157</v>
+        <v>103</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="D143" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E143" s="6">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="F143" s="25">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G143" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -6572,25 +6680,25 @@
     </row>
     <row r="144" spans="1:11" ht="20" thickBot="1">
       <c r="A144">
+        <v>105</v>
+      </c>
+      <c r="B144">
         <v>106</v>
       </c>
-      <c r="B144">
-        <v>143</v>
-      </c>
-      <c r="C144" s="24" t="s">
-        <v>158</v>
+      <c r="C144" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="D144" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E144" s="11">
+        <v>34</v>
+      </c>
+      <c r="F144" s="27">
         <v>30</v>
       </c>
-      <c r="F144" s="27">
-        <v>25</v>
-      </c>
       <c r="G144" s="13">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -6610,17 +6718,23 @@
         <v>106</v>
       </c>
       <c r="B145">
-        <v>144</v>
-      </c>
-      <c r="C145" s="21" t="s">
-        <v>159</v>
+        <v>149</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="D145" t="s">
         <v>20</v>
       </c>
-      <c r="E145" s="15"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="17"/>
+      <c r="E145" s="15">
+        <v>34</v>
+      </c>
+      <c r="F145" s="28">
+        <v>30</v>
+      </c>
+      <c r="G145" s="17">
+        <v>37</v>
+      </c>
       <c r="H145">
         <v>2</v>
       </c>
@@ -6636,22 +6750,22 @@
     </row>
     <row r="146" spans="1:11" ht="19">
       <c r="A146">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B146">
-        <v>145</v>
-      </c>
-      <c r="C146" s="24" t="s">
-        <v>160</v>
+        <v>3</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D146" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E146" s="15">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F146" s="28">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="G146" s="17">
         <v>37</v>
@@ -6671,25 +6785,25 @@
     </row>
     <row r="147" spans="1:11" ht="19">
       <c r="A147">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B147">
-        <v>146</v>
-      </c>
-      <c r="C147" s="14" t="s">
-        <v>161</v>
+        <v>64</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E147" s="6">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F147" s="25">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G147" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>2</v>
@@ -6706,25 +6820,25 @@
     </row>
     <row r="148" spans="1:11" ht="19">
       <c r="A148">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B148">
-        <v>147</v>
-      </c>
-      <c r="C148" s="24" t="s">
-        <v>162</v>
+        <v>80</v>
+      </c>
+      <c r="C148" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="D148" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E148" s="6">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F148" s="25">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G148" s="8">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -6741,25 +6855,25 @@
     </row>
     <row r="149" spans="1:11" ht="19">
       <c r="A149">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B149">
-        <v>148</v>
-      </c>
-      <c r="C149" s="14" t="s">
-        <v>163</v>
+        <v>110</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="D149" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E149" s="6">
+        <v>33</v>
+      </c>
+      <c r="F149" s="25">
+        <v>31</v>
+      </c>
+      <c r="G149" s="8">
         <v>38</v>
-      </c>
-      <c r="F149" s="25">
-        <v>36</v>
-      </c>
-      <c r="G149" s="8">
-        <v>41</v>
       </c>
       <c r="H149">
         <v>2</v>
@@ -6776,25 +6890,25 @@
     </row>
     <row r="150" spans="1:11" ht="20" thickBot="1">
       <c r="A150">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B150">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D150" t="s">
         <v>20</v>
       </c>
       <c r="E150" s="11">
+        <v>33</v>
+      </c>
+      <c r="F150" s="27">
+        <v>31</v>
+      </c>
+      <c r="G150" s="13">
         <v>34</v>
-      </c>
-      <c r="F150" s="27">
-        <v>30</v>
-      </c>
-      <c r="G150" s="13">
-        <v>37</v>
       </c>
       <c r="H150">
         <v>2</v>
@@ -6811,25 +6925,25 @@
     </row>
     <row r="151" spans="1:11" ht="19">
       <c r="A151">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B151">
-        <v>150</v>
-      </c>
-      <c r="C151" s="24" t="s">
         <v>165</v>
       </c>
+      <c r="C151" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D151" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E151" s="15">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F151" s="28">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G151" s="17">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -6846,25 +6960,25 @@
     </row>
     <row r="152" spans="1:11" ht="19">
       <c r="A152">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B152">
-        <v>151</v>
-      </c>
-      <c r="C152" s="24" t="s">
-        <v>166</v>
+        <v>4</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E152" s="6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F152" s="25">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="G152" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>2</v>
@@ -6881,25 +6995,25 @@
     </row>
     <row r="153" spans="1:11" ht="19">
       <c r="A153">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B153">
-        <v>152</v>
-      </c>
-      <c r="C153" s="14" t="s">
-        <v>167</v>
+        <v>29</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D153" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E153" s="6">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F153" s="25">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="G153" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H153">
         <v>2</v>
@@ -6919,22 +7033,22 @@
         <v>106</v>
       </c>
       <c r="B154">
-        <v>153</v>
-      </c>
-      <c r="C154" s="24" t="s">
-        <v>168</v>
+        <v>130</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="D154" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E154" s="6">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F154" s="25">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G154" s="8">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H154">
         <v>2</v>
@@ -6951,25 +7065,25 @@
     </row>
     <row r="155" spans="1:11" ht="20" thickBot="1">
       <c r="A155">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B155">
-        <v>154</v>
-      </c>
-      <c r="C155" s="14" t="s">
-        <v>169</v>
+        <v>30</v>
+      </c>
+      <c r="C155" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="D155" t="s">
-        <v>20</v>
-      </c>
-      <c r="E155" s="11">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="E155" s="19">
+        <v>35</v>
       </c>
       <c r="F155" s="27">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G155" s="13">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H155">
         <v>2</v>
@@ -6986,25 +7100,25 @@
     </row>
     <row r="156" spans="1:11" ht="19">
       <c r="A156">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B156">
-        <v>155</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>170</v>
+        <v>60</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D156" t="s">
-        <v>24</v>
-      </c>
-      <c r="E156" s="6">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="E156" s="10">
+        <v>34</v>
       </c>
       <c r="F156" s="25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G156" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H156">
         <v>2</v>
@@ -7021,25 +7135,25 @@
     </row>
     <row r="157" spans="1:11" ht="19">
       <c r="A157">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B157">
-        <v>156</v>
-      </c>
-      <c r="C157" s="14" t="s">
-        <v>171</v>
+        <v>88</v>
+      </c>
+      <c r="C157" s="20" t="s">
+        <v>103</v>
       </c>
       <c r="D157" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E157" s="6">
+        <v>34</v>
+      </c>
+      <c r="F157" s="25">
         <v>33</v>
       </c>
-      <c r="F157" s="25">
-        <v>31</v>
-      </c>
       <c r="G157" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H157">
         <v>2</v>
@@ -7056,22 +7170,22 @@
     </row>
     <row r="158" spans="1:11" ht="19">
       <c r="A158">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B158">
-        <v>157</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>172</v>
+        <v>100</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>115</v>
       </c>
       <c r="D158" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E158" s="6">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F158" s="25">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G158" s="8">
         <v>38</v>
@@ -7091,25 +7205,25 @@
     </row>
     <row r="159" spans="1:11" ht="19">
       <c r="A159">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B159">
-        <v>158</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>173</v>
+        <v>109</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="D159" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E159" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F159" s="25">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G159" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H159">
         <v>2</v>
@@ -7126,22 +7240,22 @@
     </row>
     <row r="160" spans="1:11" ht="20" thickBot="1">
       <c r="A160">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B160">
-        <v>159</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>174</v>
+        <v>114</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E160" s="11">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F160" s="27">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G160" s="13">
         <v>36</v>
@@ -7161,25 +7275,25 @@
     </row>
     <row r="161" spans="1:11" ht="19">
       <c r="A161">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B161">
-        <v>160</v>
+        <v>116</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>175</v>
+        <v>131</v>
       </c>
       <c r="D161" t="s">
         <v>24</v>
       </c>
       <c r="E161" s="15">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F161" s="28">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G161" s="17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>2</v>
@@ -7196,25 +7310,25 @@
     </row>
     <row r="162" spans="1:11" ht="19">
       <c r="A162">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B162">
-        <v>161</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>176</v>
+        <v>120</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>135</v>
       </c>
       <c r="D162" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="E162" s="6">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F162" s="25">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G162" s="8">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -7231,25 +7345,25 @@
     </row>
     <row r="163" spans="1:11" ht="19">
       <c r="A163">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B163">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="D163" t="s">
         <v>24</v>
       </c>
       <c r="E163" s="6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F163" s="25">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G163" s="8">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>2</v>
@@ -7266,25 +7380,25 @@
     </row>
     <row r="164" spans="1:11" ht="19">
       <c r="A164">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B164">
-        <v>163</v>
-      </c>
-      <c r="C164" s="14" t="s">
-        <v>178</v>
+        <v>139</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="D164" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E164" s="6">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F164" s="25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="G164" s="8">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>2</v>
@@ -7304,22 +7418,22 @@
         <v>107</v>
       </c>
       <c r="B165">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D165" t="s">
         <v>20</v>
       </c>
       <c r="E165" s="11">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F165" s="27">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G165" s="13">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H165">
         <v>2</v>
@@ -7336,25 +7450,25 @@
     </row>
     <row r="166" spans="1:11" ht="19">
       <c r="A166">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B166">
-        <v>165</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>180</v>
+        <v>25</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="D166" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E166" s="15">
+        <v>38</v>
+      </c>
+      <c r="F166" s="28">
         <v>34</v>
       </c>
-      <c r="F166" s="28">
-        <v>31</v>
-      </c>
       <c r="G166" s="17">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -7371,25 +7485,25 @@
     </row>
     <row r="167" spans="1:11" ht="19">
       <c r="A167">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B167">
-        <v>166</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>181</v>
+        <v>34</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D167" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E167" s="6">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F167" s="25">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G167" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H167">
         <v>2</v>
@@ -7406,25 +7520,25 @@
     </row>
     <row r="168" spans="1:11" ht="19">
       <c r="A168">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B168">
-        <v>167</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>182</v>
+        <v>89</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>104</v>
       </c>
       <c r="D168" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E168" s="6">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F168" s="25">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G168" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H168">
         <v>2</v>
@@ -7441,25 +7555,25 @@
     </row>
     <row r="169" spans="1:11" ht="19">
       <c r="A169">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B169">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D169" t="s">
         <v>24</v>
       </c>
       <c r="E169" s="6">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F169" s="25">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G169" s="8">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H169">
         <v>2</v>
@@ -7476,22 +7590,22 @@
     </row>
     <row r="170" spans="1:11" ht="20" thickBot="1">
       <c r="A170">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B170">
-        <v>169</v>
-      </c>
-      <c r="C170" s="14" t="s">
-        <v>184</v>
+        <v>126</v>
+      </c>
+      <c r="C170" s="21" t="s">
+        <v>141</v>
       </c>
       <c r="D170" t="s">
         <v>20</v>
       </c>
-      <c r="E170" s="11">
-        <v>30</v>
+      <c r="E170" s="19">
+        <v>40</v>
       </c>
       <c r="F170" s="27">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G170" s="13">
         <v>36</v>
@@ -7511,25 +7625,25 @@
     </row>
     <row r="171" spans="1:11" ht="19">
       <c r="A171">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B171">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D171" t="s">
         <v>20</v>
       </c>
       <c r="E171" s="15">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F171" s="28">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G171" s="17">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H171">
         <v>2</v>
@@ -7546,25 +7660,25 @@
     </row>
     <row r="172" spans="1:11" ht="19">
       <c r="A172">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B172">
-        <v>171</v>
-      </c>
-      <c r="C172" s="14" t="s">
-        <v>186</v>
+        <v>65</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D172" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E172" s="6">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F172" s="25">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G172" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H172">
         <v>2</v>
@@ -7581,25 +7695,25 @@
     </row>
     <row r="173" spans="1:11" ht="19">
       <c r="A173">
+        <v>104</v>
+      </c>
+      <c r="B173">
+        <v>92</v>
+      </c>
+      <c r="C173" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B173">
-        <v>172</v>
-      </c>
-      <c r="C173" s="23" t="s">
-        <v>187</v>
-      </c>
       <c r="D173" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E173" s="6">
+        <v>41</v>
+      </c>
+      <c r="F173" s="25">
+        <v>37</v>
+      </c>
+      <c r="G173" s="8">
         <v>34</v>
-      </c>
-      <c r="F173" s="25">
-        <v>29</v>
-      </c>
-      <c r="G173" s="8">
-        <v>37</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -7616,25 +7730,25 @@
     </row>
     <row r="174" spans="1:11" ht="19">
       <c r="A174">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B174">
-        <v>173</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>188</v>
+        <v>56</v>
+      </c>
+      <c r="C174" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D174" t="s">
-        <v>24</v>
-      </c>
-      <c r="E174" s="6">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="E174" s="10">
+        <v>40</v>
       </c>
       <c r="F174" s="25">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="G174" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H174">
         <v>2</v>
@@ -7651,25 +7765,25 @@
     </row>
     <row r="175" spans="1:11" ht="20" thickBot="1">
       <c r="A175">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B175">
-        <v>174</v>
-      </c>
-      <c r="C175" s="14" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="D175" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E175" s="11">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F175" s="27">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="G175" s="13">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -7686,25 +7800,25 @@
     </row>
     <row r="176" spans="1:11" ht="19">
       <c r="A176">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B176">
-        <v>175</v>
-      </c>
-      <c r="C176" s="14" t="s">
-        <v>190</v>
+        <v>82</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D176" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E176" s="15">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F176" s="28">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G176" s="17">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -7721,22 +7835,22 @@
     </row>
     <row r="177" spans="1:11" ht="19">
       <c r="A177">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B177">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="D177" t="s">
         <v>24</v>
       </c>
       <c r="E177" s="6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F177" s="25">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G177" s="8">
         <v>39</v>
@@ -7756,60 +7870,57 @@
     </row>
     <row r="178" spans="1:11" ht="19">
       <c r="A178">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B178">
-        <v>177</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>192</v>
+        <v>153</v>
+      </c>
+      <c r="C178" s="24" t="s">
+        <v>168</v>
       </c>
       <c r="D178" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E178" s="6">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="F178" s="25">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G178" s="8">
-        <v>40</v>
-      </c>
-      <c r="H178">
-        <v>2</v>
-      </c>
-      <c r="I178">
-        <v>2</v>
+        <v>41</v>
+      </c>
+      <c r="I178" s="46">
+        <v>0</v>
       </c>
       <c r="J178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K178">
         <v>2</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="19">
-      <c r="A179">
-        <v>108</v>
+    <row r="179" spans="1:11">
+      <c r="A179" t="s">
+        <v>7</v>
       </c>
       <c r="B179">
-        <v>178</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>193</v>
+        <v>2</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>24</v>
-      </c>
-      <c r="E179" s="6">
-        <v>24</v>
-      </c>
-      <c r="F179" s="25">
-        <v>22</v>
-      </c>
-      <c r="G179" s="8">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="E179" s="38">
+        <v>75</v>
+      </c>
+      <c r="F179" s="40">
+        <v>65</v>
+      </c>
+      <c r="G179" s="42">
+        <v>85</v>
       </c>
       <c r="H179">
         <v>2</v>
@@ -7824,27 +7935,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="19">
-      <c r="A180">
-        <v>108</v>
+    <row r="180" spans="1:11">
+      <c r="A180" t="s">
+        <v>7</v>
       </c>
       <c r="B180">
-        <v>179</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>194</v>
+        <v>1</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
       </c>
       <c r="D180" t="s">
-        <v>24</v>
-      </c>
-      <c r="E180" s="6">
-        <v>26</v>
-      </c>
-      <c r="F180" s="25">
-        <v>24</v>
-      </c>
-      <c r="G180" s="8">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="E180" s="38">
+        <v>80</v>
+      </c>
+      <c r="F180" s="40">
+        <v>70</v>
+      </c>
+      <c r="G180" s="42">
+        <v>90</v>
       </c>
       <c r="H180">
         <v>2</v>
@@ -7861,61 +7972,40 @@
     </row>
     <row r="181" spans="1:11" ht="20" thickBot="1">
       <c r="A181">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B181">
-        <v>180</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>195</v>
+        <v>24</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
-      </c>
-      <c r="E181" s="11">
-        <v>32</v>
-      </c>
-      <c r="F181" s="27">
-        <v>26</v>
-      </c>
-      <c r="G181" s="13">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="E181" s="11"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="13"/>
       <c r="H181">
-        <v>2</v>
-      </c>
-      <c r="I181">
-        <v>2</v>
-      </c>
-      <c r="J181">
-        <v>2</v>
-      </c>
-      <c r="K181">
         <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:11" ht="19">
       <c r="A182">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B182">
-        <v>181</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>196</v>
+        <v>28</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>42</v>
       </c>
       <c r="D182" t="s">
-        <v>24</v>
-      </c>
-      <c r="E182" s="15">
-        <v>37</v>
-      </c>
-      <c r="F182" s="28">
-        <v>34</v>
-      </c>
-      <c r="G182" s="17">
-        <v>39</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E182" s="22"/>
+      <c r="F182" s="28"/>
+      <c r="G182" s="17"/>
       <c r="H182">
         <v>2</v>
       </c>
@@ -7931,26 +8021,20 @@
     </row>
     <row r="183" spans="1:11" ht="19">
       <c r="A183">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B183">
-        <v>182</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>197</v>
+        <v>42</v>
+      </c>
+      <c r="C183" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="D183" t="s">
-        <v>24</v>
-      </c>
-      <c r="E183" s="6">
-        <v>42</v>
-      </c>
-      <c r="F183" s="25">
-        <v>39</v>
-      </c>
-      <c r="G183" s="8">
-        <v>40</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E183" s="31"/>
+      <c r="F183" s="32"/>
+      <c r="G183" s="33"/>
       <c r="H183">
         <v>2</v>
       </c>
@@ -7966,26 +8050,20 @@
     </row>
     <row r="184" spans="1:11" ht="19">
       <c r="A184">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B184">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="D184" t="s">
         <v>20</v>
       </c>
-      <c r="E184" s="6">
-        <v>31</v>
-      </c>
-      <c r="F184" s="25">
-        <v>27</v>
-      </c>
-      <c r="G184" s="8">
-        <v>39</v>
-      </c>
+      <c r="E184" s="6"/>
+      <c r="F184" s="25"/>
+      <c r="G184" s="8"/>
       <c r="H184">
         <v>2</v>
       </c>
@@ -8001,26 +8079,20 @@
     </row>
     <row r="185" spans="1:11" ht="20" thickBot="1">
       <c r="A185">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B185">
-        <v>184</v>
+        <v>53</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>199</v>
+        <v>68</v>
       </c>
       <c r="D185" t="s">
-        <v>20</v>
-      </c>
-      <c r="E185" s="11">
-        <v>29</v>
-      </c>
-      <c r="F185" s="27">
-        <v>24</v>
-      </c>
-      <c r="G185" s="13">
-        <v>40</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="E185" s="11"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="13"/>
       <c r="H185">
         <v>2</v>
       </c>
@@ -8036,26 +8108,17 @@
     </row>
     <row r="186" spans="1:11" ht="19">
       <c r="A186">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B186">
-        <v>185</v>
-      </c>
-      <c r="C186" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="D186" t="s">
-        <v>20</v>
-      </c>
-      <c r="E186" s="15">
-        <v>27</v>
-      </c>
-      <c r="F186" s="28">
-        <v>24</v>
-      </c>
-      <c r="G186" s="17">
-        <v>37</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C186" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E186" s="15"/>
+      <c r="F186" s="28"/>
+      <c r="G186" s="17"/>
       <c r="H186">
         <v>2</v>
       </c>
@@ -8071,26 +8134,20 @@
     </row>
     <row r="187" spans="1:11" ht="19">
       <c r="A187">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B187">
-        <v>186</v>
-      </c>
-      <c r="C187" s="14" t="s">
-        <v>201</v>
+        <v>57</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="D187" t="s">
-        <v>20</v>
-      </c>
-      <c r="E187" s="6">
-        <v>32</v>
-      </c>
-      <c r="F187" s="25">
-        <v>26</v>
-      </c>
-      <c r="G187" s="8">
-        <v>40</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E187" s="6"/>
+      <c r="F187" s="25"/>
+      <c r="G187" s="8"/>
       <c r="H187">
         <v>2</v>
       </c>
@@ -8106,26 +8163,20 @@
     </row>
     <row r="188" spans="1:11" ht="19">
       <c r="A188">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B188">
-        <v>187</v>
-      </c>
-      <c r="C188" s="14" t="s">
-        <v>202</v>
+        <v>68</v>
+      </c>
+      <c r="C188" s="29" t="s">
+        <v>83</v>
       </c>
       <c r="D188" t="s">
         <v>20</v>
       </c>
-      <c r="E188" s="6">
-        <v>29</v>
-      </c>
-      <c r="F188" s="25">
-        <v>25</v>
-      </c>
-      <c r="G188" s="8">
-        <v>38</v>
-      </c>
+      <c r="E188" s="6"/>
+      <c r="F188" s="25"/>
+      <c r="G188" s="8"/>
       <c r="H188">
         <v>2</v>
       </c>
@@ -8141,26 +8192,20 @@
     </row>
     <row r="189" spans="1:11" ht="19">
       <c r="A189">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B189">
-        <v>188</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>203</v>
+        <v>79</v>
+      </c>
+      <c r="C189" s="24" t="s">
+        <v>94</v>
       </c>
       <c r="D189" t="s">
         <v>20</v>
       </c>
-      <c r="E189" s="6">
-        <v>28</v>
-      </c>
-      <c r="F189" s="25">
-        <v>25</v>
-      </c>
-      <c r="G189" s="8">
-        <v>37</v>
-      </c>
+      <c r="E189" s="38"/>
+      <c r="F189" s="40"/>
+      <c r="G189" s="42"/>
       <c r="H189">
         <v>2</v>
       </c>
@@ -8176,26 +8221,20 @@
     </row>
     <row r="190" spans="1:11" ht="20" thickBot="1">
       <c r="A190">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B190">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>204</v>
+        <v>110</v>
       </c>
       <c r="D190" t="s">
         <v>20</v>
       </c>
-      <c r="E190" s="11">
-        <v>28</v>
-      </c>
-      <c r="F190" s="27">
-        <v>25</v>
-      </c>
-      <c r="G190" s="13">
-        <v>38</v>
-      </c>
+      <c r="E190" s="39"/>
+      <c r="F190" s="41"/>
+      <c r="G190" s="43"/>
       <c r="H190">
         <v>2</v>
       </c>
@@ -8211,26 +8250,20 @@
     </row>
     <row r="191" spans="1:11" ht="19">
       <c r="A191">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B191">
-        <v>190</v>
-      </c>
-      <c r="C191" s="14" t="s">
-        <v>205</v>
+        <v>102</v>
+      </c>
+      <c r="C191" s="29" t="s">
+        <v>117</v>
       </c>
       <c r="D191" t="s">
         <v>20</v>
       </c>
-      <c r="E191" s="15">
-        <v>31</v>
-      </c>
-      <c r="F191" s="28">
-        <v>25</v>
-      </c>
-      <c r="G191" s="17">
-        <v>38</v>
-      </c>
+      <c r="E191" s="15"/>
+      <c r="F191" s="28"/>
+      <c r="G191" s="17"/>
       <c r="H191">
         <v>2</v>
       </c>
@@ -8246,26 +8279,20 @@
     </row>
     <row r="192" spans="1:11" ht="19">
       <c r="A192">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B192">
-        <v>191</v>
-      </c>
-      <c r="C192" s="14" t="s">
-        <v>206</v>
+        <v>104</v>
+      </c>
+      <c r="C192" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="D192" t="s">
         <v>20</v>
       </c>
-      <c r="E192" s="6">
-        <v>29</v>
-      </c>
-      <c r="F192" s="25">
-        <v>27</v>
-      </c>
-      <c r="G192" s="8">
-        <v>37</v>
-      </c>
+      <c r="E192" s="6"/>
+      <c r="F192" s="25"/>
+      <c r="G192" s="8"/>
       <c r="H192">
         <v>2</v>
       </c>
@@ -8281,26 +8308,20 @@
     </row>
     <row r="193" spans="1:11" ht="19">
       <c r="A193">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B193">
-        <v>192</v>
-      </c>
-      <c r="C193" s="14" t="s">
-        <v>207</v>
+        <v>112</v>
+      </c>
+      <c r="C193" s="29" t="s">
+        <v>127</v>
       </c>
       <c r="D193" t="s">
-        <v>20</v>
-      </c>
-      <c r="E193" s="6">
-        <v>32</v>
-      </c>
-      <c r="F193" s="25">
-        <v>29</v>
-      </c>
-      <c r="G193" s="8">
-        <v>40</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E193" s="6"/>
+      <c r="F193" s="25"/>
+      <c r="G193" s="8"/>
       <c r="H193">
         <v>2</v>
       </c>
@@ -8316,26 +8337,20 @@
     </row>
     <row r="194" spans="1:11" ht="19">
       <c r="A194">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B194">
-        <v>193</v>
-      </c>
-      <c r="C194" s="14" t="s">
-        <v>208</v>
+        <v>129</v>
+      </c>
+      <c r="C194" s="21" t="s">
+        <v>144</v>
       </c>
       <c r="D194" t="s">
         <v>20</v>
       </c>
-      <c r="E194" s="6">
-        <v>33</v>
-      </c>
-      <c r="F194" s="25">
-        <v>29</v>
-      </c>
-      <c r="G194" s="8">
-        <v>42</v>
-      </c>
+      <c r="E194" s="10"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="8"/>
       <c r="H194">
         <v>2</v>
       </c>
@@ -8351,26 +8366,20 @@
     </row>
     <row r="195" spans="1:11" ht="20" thickBot="1">
       <c r="A195">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B195">
-        <v>194</v>
-      </c>
-      <c r="C195" s="23" t="s">
-        <v>209</v>
+        <v>140</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="D195" t="s">
-        <v>20</v>
-      </c>
-      <c r="E195" s="11">
-        <v>30</v>
-      </c>
-      <c r="F195" s="27">
-        <v>24</v>
-      </c>
-      <c r="G195" s="13">
-        <v>39</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E195" s="11"/>
+      <c r="F195" s="27"/>
+      <c r="G195" s="13"/>
       <c r="H195">
         <v>2</v>
       </c>
@@ -8386,26 +8395,20 @@
     </row>
     <row r="196" spans="1:11" ht="20" thickBot="1">
       <c r="A196">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B196">
-        <v>195</v>
-      </c>
-      <c r="C196" s="23" t="s">
-        <v>214</v>
+        <v>144</v>
+      </c>
+      <c r="C196" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="D196" t="s">
         <v>20</v>
       </c>
-      <c r="E196" s="11">
-        <v>30</v>
-      </c>
-      <c r="F196" s="27">
-        <v>29</v>
-      </c>
-      <c r="G196" s="13">
-        <v>41</v>
-      </c>
+      <c r="E196" s="11"/>
+      <c r="F196" s="27"/>
+      <c r="G196" s="13"/>
       <c r="H196">
         <v>2</v>
       </c>
@@ -8420,6 +8423,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K196">
+    <sortCondition ref="F1:F196"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C4:C5 C7:C28">
     <cfRule type="duplicateValues" dxfId="9" priority="9" stopIfTrue="1"/>
@@ -8453,7 +8459,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:I2 A3:G3 J3:K3 A1:G1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/龍頭/學生資料匯入範本-需求都是2.xlsx
+++ b/龍頭/學生資料匯入範本-需求都是2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aydenhuang/Documents/ProgranmCase/MyCursor/dragon/龍頭/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF05E19C-93A6-814B-85C6-ACFDA2912F3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865F03AE-A9DB-EF4D-81B2-1C41A5525501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="218">
   <si>
     <t>班級</t>
   </si>
@@ -566,9 +566,6 @@
     <t>周宸忻</t>
   </si>
   <si>
-    <t>吳庭𦭳</t>
-  </si>
-  <si>
     <t>張芷綺</t>
   </si>
   <si>
@@ -745,6 +742,22 @@
   <si>
     <t>測試女</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳庭庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳語語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庭𦭳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1665,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K196"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="J182" sqref="J182"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="S201" activeCellId="1" sqref="A182:K199 S201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1696,16 +1709,16 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I1" t="s">
         <v>210</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>211</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>212</v>
-      </c>
-      <c r="K1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -1821,7 +1834,7 @@
         <v>147</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -1891,7 +1904,7 @@
         <v>150</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1926,7 +1939,7 @@
         <v>166</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -1961,7 +1974,7 @@
         <v>178</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -2346,7 +2359,7 @@
         <v>146</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -2381,7 +2394,7 @@
         <v>152</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -2416,7 +2429,7 @@
         <v>162</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
         <v>24</v>
@@ -3116,7 +3129,7 @@
         <v>155</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
         <v>24</v>
@@ -3151,7 +3164,7 @@
         <v>163</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
@@ -3186,7 +3199,7 @@
         <v>170</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
@@ -3221,7 +3234,7 @@
         <v>179</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" t="s">
         <v>24</v>
@@ -3256,7 +3269,7 @@
         <v>184</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D46" t="s">
         <v>20</v>
@@ -3291,7 +3304,7 @@
         <v>185</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D47" t="s">
         <v>20</v>
@@ -3326,7 +3339,7 @@
         <v>194</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
         <v>20</v>
@@ -4026,7 +4039,7 @@
         <v>145</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
         <v>20</v>
@@ -4061,7 +4074,7 @@
         <v>151</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D69" t="s">
         <v>20</v>
@@ -4096,7 +4109,7 @@
         <v>154</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
         <v>20</v>
@@ -4131,7 +4144,7 @@
         <v>157</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D71" t="s">
         <v>24</v>
@@ -4166,7 +4179,7 @@
         <v>169</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D72" t="s">
         <v>20</v>
@@ -4201,7 +4214,7 @@
         <v>175</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D73" t="s">
         <v>20</v>
@@ -4236,7 +4249,7 @@
         <v>187</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74" t="s">
         <v>20</v>
@@ -4271,7 +4284,7 @@
         <v>188</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D75" t="s">
         <v>20</v>
@@ -4306,7 +4319,7 @@
         <v>189</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D76" t="s">
         <v>20</v>
@@ -4341,7 +4354,7 @@
         <v>190</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D77" t="s">
         <v>20</v>
@@ -4761,7 +4774,7 @@
         <v>158</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D89" t="s">
         <v>20</v>
@@ -4796,7 +4809,7 @@
         <v>160</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D90" t="s">
         <v>24</v>
@@ -4831,7 +4844,7 @@
         <v>164</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D91" t="s">
         <v>20</v>
@@ -4866,7 +4879,7 @@
         <v>173</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D92" t="s">
         <v>24</v>
@@ -4901,7 +4914,7 @@
         <v>177</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -4936,7 +4949,7 @@
         <v>180</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -4971,7 +4984,7 @@
         <v>186</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D95" t="s">
         <v>20</v>
@@ -5426,7 +5439,7 @@
         <v>159</v>
       </c>
       <c r="C108" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D108" t="s">
         <v>24</v>
@@ -5461,7 +5474,7 @@
         <v>161</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D109" t="s">
         <v>24</v>
@@ -5496,7 +5509,7 @@
         <v>167</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D110" t="s">
         <v>20</v>
@@ -5531,7 +5544,7 @@
         <v>183</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D111" t="s">
         <v>20</v>
@@ -5566,7 +5579,7 @@
         <v>191</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D112" t="s">
         <v>20</v>
@@ -6126,7 +6139,7 @@
         <v>168</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D128" t="s">
         <v>24</v>
@@ -6161,7 +6174,7 @@
         <v>174</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D129" t="s">
         <v>20</v>
@@ -6371,7 +6384,7 @@
         <v>172</v>
       </c>
       <c r="C135" s="23" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D135" t="s">
         <v>20</v>
@@ -6406,7 +6419,7 @@
         <v>176</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D136" t="s">
         <v>24</v>
@@ -6441,7 +6454,7 @@
         <v>192</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D137" t="s">
         <v>20</v>
@@ -6476,7 +6489,7 @@
         <v>193</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D138" t="s">
         <v>20</v>
@@ -6511,7 +6524,7 @@
         <v>195</v>
       </c>
       <c r="C139" s="23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D139" t="s">
         <v>20</v>
@@ -6721,7 +6734,7 @@
         <v>149</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D145" t="s">
         <v>20</v>
@@ -6896,7 +6909,7 @@
         <v>156</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D150" t="s">
         <v>20</v>
@@ -6931,7 +6944,7 @@
         <v>165</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D151" t="s">
         <v>24</v>
@@ -7421,7 +7434,7 @@
         <v>171</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D165" t="s">
         <v>20</v>
@@ -7561,7 +7574,7 @@
         <v>181</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D169" t="s">
         <v>24</v>
@@ -7631,7 +7644,7 @@
         <v>148</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D171" t="s">
         <v>20</v>
@@ -7771,7 +7784,7 @@
         <v>182</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D175" t="s">
         <v>24</v>
@@ -7876,7 +7889,7 @@
         <v>153</v>
       </c>
       <c r="C178" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D178" t="s">
         <v>20</v>
@@ -8398,10 +8411,10 @@
         <v>106</v>
       </c>
       <c r="B196">
-        <v>144</v>
+        <v>199</v>
       </c>
       <c r="C196" s="21" t="s">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="D196" t="s">
         <v>20</v>
@@ -8419,6 +8432,93 @@
         <v>2</v>
       </c>
       <c r="K196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" ht="20" thickBot="1">
+      <c r="A197">
+        <v>106</v>
+      </c>
+      <c r="B197">
+        <v>200</v>
+      </c>
+      <c r="C197" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D197" t="s">
+        <v>20</v>
+      </c>
+      <c r="E197" s="11"/>
+      <c r="F197" s="27"/>
+      <c r="G197" s="13"/>
+      <c r="H197">
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>2</v>
+      </c>
+      <c r="J197">
+        <v>2</v>
+      </c>
+      <c r="K197">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" ht="20" thickBot="1">
+      <c r="A198">
+        <v>106</v>
+      </c>
+      <c r="B198">
+        <v>201</v>
+      </c>
+      <c r="C198" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D198" t="s">
+        <v>20</v>
+      </c>
+      <c r="E198" s="11"/>
+      <c r="F198" s="27"/>
+      <c r="G198" s="13"/>
+      <c r="H198">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>2</v>
+      </c>
+      <c r="J198">
+        <v>2</v>
+      </c>
+      <c r="K198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" ht="20" thickBot="1">
+      <c r="A199">
+        <v>106</v>
+      </c>
+      <c r="B199">
+        <v>202</v>
+      </c>
+      <c r="C199" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D199" t="s">
+        <v>20</v>
+      </c>
+      <c r="E199" s="11"/>
+      <c r="F199" s="27"/>
+      <c r="G199" s="13"/>
+      <c r="H199">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>2</v>
+      </c>
+      <c r="J199">
+        <v>2</v>
+      </c>
+      <c r="K199">
         <v>2</v>
       </c>
     </row>
